--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_2_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_2_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2129706.844328379</v>
+        <v>2165025.599654146</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>426806.9758914466</v>
+        <v>426806.9758914465</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8362709.48847871</v>
+        <v>8362709.488478706</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7452621.495505981</v>
+        <v>7452621.49550598</v>
       </c>
     </row>
     <row r="11">
@@ -670,10 +670,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>87.7061602166668</v>
       </c>
       <c r="G2" t="n">
-        <v>96.13285199009043</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -740,13 +740,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -797,16 +797,16 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>240.1685615221494</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>200.8531994405235</v>
       </c>
     </row>
     <row r="4">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>110.9174757594852</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -901,13 +901,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E5" t="n">
-        <v>48.83589518354175</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>55.71194092525318</v>
       </c>
       <c r="G5" t="n">
         <v>15.30273751513505</v>
@@ -952,16 +952,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V5" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -980,19 +980,19 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>3.833957768458675</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>29.07035593355321</v>
       </c>
     </row>
     <row r="7">
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1077,10 +1077,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1141,22 +1141,22 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>98.74855378848305</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.30273751513505</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>4.317010414468148</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1223,16 +1223,16 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>123.6003327477366</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1262,25 +1262,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>229.4073602209212</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1299,13 +1299,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>14.83685490770591</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,10 +1314,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1381,13 +1381,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>275.7044563271317</v>
+        <v>86.28221035243982</v>
       </c>
       <c r="H11" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1417,10 +1417,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>68.39969274597628</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T11" t="n">
         <v>217.4184586216305</v>
@@ -1429,16 +1429,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -1466,7 +1466,7 @@
         <v>136.64958867533</v>
       </c>
       <c r="H12" t="n">
-        <v>8.142111638529839</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>65.50479675552441</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>57.07339698405353</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S12" t="n">
         <v>158.7937537960548</v>
@@ -1517,7 +1517,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>47.29162376596672</v>
       </c>
     </row>
     <row r="13">
@@ -1539,16 +1539,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>47.239591316294</v>
       </c>
       <c r="H13" t="n">
-        <v>157.0547409226243</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>31.28680070732944</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>118.8056559069594</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1621,13 +1621,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,25 +1654,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>68.39969274597628</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S14" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>217.4184586216305</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>75.06680495445617</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.64958867533</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>57.07339698405353</v>
+        <v>35.33191364804614</v>
       </c>
       <c r="S15" t="n">
-        <v>65.90747854024231</v>
+        <v>158.7937537960548</v>
       </c>
       <c r="T15" t="n">
         <v>197.3677099213027</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1776,16 +1776,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>132.1304135414941</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>137.955174638333</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1824,10 +1824,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>145.4692693928244</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1846,10 +1846,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1858,10 +1858,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>359.7912900596151</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1906,13 +1906,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>182.4906189614323</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1934,13 +1934,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>136.64958867533</v>
+        <v>74.86757009578068</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I18" t="n">
         <v>65.50479675552441</v>
@@ -1979,7 +1979,7 @@
         <v>197.3677099213027</v>
       </c>
       <c r="U18" t="n">
-        <v>124.5780538636992</v>
+        <v>225.8957288909827</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2058,19 +2058,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>47.47529300550337</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>188.3415416299537</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>173.1912663925209</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>64.8176253528457</v>
       </c>
     </row>
     <row r="21">
@@ -2177,7 +2177,7 @@
         <v>136.64958867533</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2210,13 +2210,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>158.7937537960548</v>
+        <v>17.44731957864699</v>
       </c>
       <c r="T21" t="n">
         <v>197.3677099213027</v>
       </c>
       <c r="U21" t="n">
-        <v>190.0828506192233</v>
+        <v>225.8957288909827</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2253,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>100.1091373518904</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>151.1350615014064</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2298,16 +2298,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>115.1779363007902</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>250.3129159988634</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>304.6318947088407</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2365,13 +2365,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>68.39969274597628</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>251.2418970482362</v>
@@ -2380,10 +2380,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2411,13 +2411,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>136.64958867533</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>105.5335559456492</v>
       </c>
       <c r="I24" t="n">
-        <v>7.353154002015613</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>57.07339698405353</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>158.7937537960548</v>
+        <v>154.0969082539769</v>
       </c>
       <c r="T24" t="n">
         <v>197.3677099213027</v>
@@ -2462,7 +2462,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2487,13 +2487,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>47.72067347890864</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2535,7 +2535,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>238.8214316961478</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2563,13 +2563,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>102.7113352232391</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2602,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>58.43664663157617</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2620,7 +2620,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2648,7 +2648,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>136.64958867533</v>
+        <v>43.76331341951682</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>57.07339698405353</v>
       </c>
       <c r="S27" t="n">
-        <v>122.9808755242954</v>
+        <v>158.7937537960548</v>
       </c>
       <c r="T27" t="n">
         <v>197.3677099213027</v>
@@ -2718,19 +2718,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>107.9827033049268</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2757,22 +2757,22 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>37.44704598407324</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>108.3027291048317</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2794,25 +2794,25 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>37.26407471612261</v>
       </c>
       <c r="G29" t="n">
-        <v>265.5357406280024</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>179.4658614532381</v>
       </c>
       <c r="T29" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>251.2418970482362</v>
@@ -2854,7 +2854,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2885,10 +2885,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>136.64958867533</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>43.76331341951727</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>57.07339698405353</v>
       </c>
       <c r="S30" t="n">
-        <v>65.90747854024187</v>
+        <v>158.7937537960548</v>
       </c>
       <c r="T30" t="n">
         <v>197.3677099213027</v>
@@ -2961,10 +2961,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,16 +3000,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>193.0311594038714</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>188.3415416299537</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>414.005789270132</v>
       </c>
       <c r="H32" t="n">
-        <v>326.1924309016296</v>
+        <v>265.5802315580912</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>217.4184586216305</v>
@@ -3088,16 +3088,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>117.2584746548592</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3122,10 +3122,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>43.76331341951727</v>
       </c>
       <c r="H33" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3161,7 +3161,7 @@
         <v>158.7937537960548</v>
       </c>
       <c r="T33" t="n">
-        <v>135.5974673951708</v>
+        <v>197.3677099213027</v>
       </c>
       <c r="U33" t="n">
         <v>225.8957288909827</v>
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>55.23837669169883</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>123.6039762133036</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>137.955174638333</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3265,22 +3265,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3322,19 +3322,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>164.9665196289772</v>
+        <v>22.11237308347014</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3359,13 +3359,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>136.64958867533</v>
+        <v>43.76331341951727</v>
       </c>
       <c r="H36" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,16 +3392,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>57.07339698405353</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>158.7937537960548</v>
       </c>
       <c r="T36" t="n">
         <v>197.3677099213027</v>
       </c>
       <c r="U36" t="n">
-        <v>177.838251714105</v>
+        <v>225.8957288909827</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -3429,13 +3429,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>73.6675792510848</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3474,22 +3474,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>223.4067624819484</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3502,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>414.005789270132</v>
+        <v>281.5676636815974</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3550,19 +3550,19 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>68.39969274597628</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T38" t="n">
-        <v>109.5100215116415</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U38" t="n">
         <v>251.2418970482362</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3596,7 +3596,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>136.64958867533</v>
+        <v>105.5255478677689</v>
       </c>
       <c r="H39" t="n">
         <v>105.5335559456492</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>57.07339698405353</v>
       </c>
       <c r="S39" t="n">
         <v>158.7937537960548</v>
@@ -3641,10 +3641,10 @@
         <v>225.8957288909827</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>44.84375218798685</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -3663,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3675,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>9.461027631632836</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>157.0547409226243</v>
+        <v>146.5623749521075</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,16 +3711,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>290.6618087020422</v>
+        <v>159.0463906019848</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3787,28 +3787,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>68.39969274597627</v>
       </c>
       <c r="S41" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>251.2418970482362</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3833,13 +3833,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>100.8367104035708</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>57.07339698405352</v>
       </c>
       <c r="S42" t="n">
         <v>158.7937537960548</v>
@@ -3875,7 +3875,7 @@
         <v>197.3677099213027</v>
       </c>
       <c r="U42" t="n">
-        <v>225.8957288909827</v>
+        <v>167.6537967113008</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -3887,7 +3887,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3897,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>111.0188171299942</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>137.955174638333</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,16 +3948,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>8.60720031377461</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3976,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>23.09623707927898</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,28 +4024,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>68.39969274597627</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>132.4615128504622</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4058,7 +4058,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>106.1515809526321</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -4073,7 +4073,7 @@
         <v>136.64958867533</v>
       </c>
       <c r="H45" t="n">
-        <v>105.5335559456492</v>
+        <v>96.05003489401925</v>
       </c>
       <c r="I45" t="n">
         <v>65.50479675552441</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>57.07339698405352</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>158.7937537960548</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4149,13 +4149,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>145.4692693928245</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>137.955174638333</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4200,10 +4200,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>42.06255141974967</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4318,7 +4318,7 @@
         <v>348.0024326625565</v>
       </c>
       <c r="F2" t="n">
-        <v>341.056931913353</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G2" t="n">
         <v>243.9530410142718</v>
@@ -4385,13 +4385,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>110.334904905842</v>
+        <v>592.9597988536757</v>
       </c>
       <c r="C3" t="n">
-        <v>110.334904905842</v>
+        <v>418.5067695725487</v>
       </c>
       <c r="D3" t="n">
-        <v>110.334904905842</v>
+        <v>269.5723599112974</v>
       </c>
       <c r="E3" t="n">
         <v>110.334904905842</v>
@@ -4412,19 +4412,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M3" t="n">
-        <v>473.4149733950735</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N3" t="n">
-        <v>473.4149733950735</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P3" t="n">
         <v>894.6625969973069</v>
@@ -4445,16 +4445,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V3" t="n">
-        <v>728.9050472788936</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W3" t="n">
-        <v>486.3105406908639</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X3" t="n">
-        <v>486.3105406908639</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y3" t="n">
-        <v>278.55024192591</v>
+        <v>761.1751358737438</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4527,13 +4527,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X4" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y4" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>315.6850394389064</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="C5" t="n">
-        <v>315.6850394389064</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="D5" t="n">
         <v>315.6850394389064</v>
       </c>
       <c r="E5" t="n">
-        <v>266.3558523848238</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="F5" t="n">
         <v>259.4103516356203</v>
@@ -4600,19 +4600,19 @@
         <v>802.5825927271064</v>
       </c>
       <c r="U5" t="n">
+        <v>802.5825927271064</v>
+      </c>
+      <c r="V5" t="n">
+        <v>802.5825927271064</v>
+      </c>
+      <c r="W5" t="n">
+        <v>802.5825927271064</v>
+      </c>
+      <c r="X5" t="n">
         <v>559.1338160830064</v>
       </c>
-      <c r="V5" t="n">
-        <v>315.6850394389064</v>
-      </c>
-      <c r="W5" t="n">
-        <v>315.6850394389064</v>
-      </c>
-      <c r="X5" t="n">
-        <v>315.6850394389064</v>
-      </c>
       <c r="Y5" t="n">
-        <v>315.6850394389064</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>23.90796037760316</v>
+        <v>726.8416594126254</v>
       </c>
       <c r="C6" t="n">
-        <v>23.90796037760316</v>
+        <v>726.8416594126254</v>
       </c>
       <c r="D6" t="n">
-        <v>23.90796037760316</v>
+        <v>577.9072497513741</v>
       </c>
       <c r="E6" t="n">
-        <v>20.03527576299844</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="F6" t="n">
-        <v>20.03527576299844</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G6" t="n">
-        <v>20.03527576299844</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H6" t="n">
         <v>20.03527576299844</v>
@@ -4649,49 +4649,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>248.2447175439888</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>486.8488635328713</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N6" t="n">
-        <v>725.4530095217538</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O6" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V6" t="n">
-        <v>23.90796037760316</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W6" t="n">
-        <v>23.90796037760316</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X6" t="n">
-        <v>23.90796037760316</v>
+        <v>756.2056553051034</v>
       </c>
       <c r="Y6" t="n">
-        <v>23.90796037760316</v>
+        <v>726.8416594126254</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4767,10 +4767,10 @@
         <v>151.0645035650224</v>
       </c>
       <c r="X7" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="Y7" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>366.1018663125844</v>
+        <v>513.1241971476163</v>
       </c>
       <c r="C8" t="n">
-        <v>366.1018663125844</v>
+        <v>513.1241971476163</v>
       </c>
       <c r="D8" t="n">
-        <v>366.1018663125844</v>
+        <v>513.1241971476163</v>
       </c>
       <c r="E8" t="n">
-        <v>266.3558523848238</v>
+        <v>513.1241971476163</v>
       </c>
       <c r="F8" t="n">
-        <v>259.4103516356203</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G8" t="n">
-        <v>243.9530410142718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H8" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4828,28 +4828,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>802.5825927271064</v>
+        <v>949.6049235621383</v>
       </c>
       <c r="S8" t="n">
-        <v>591.4512093066566</v>
+        <v>738.4735401416884</v>
       </c>
       <c r="T8" t="n">
-        <v>366.1018663125844</v>
+        <v>513.1241971476163</v>
       </c>
       <c r="U8" t="n">
-        <v>366.1018663125844</v>
+        <v>513.1241971476163</v>
       </c>
       <c r="V8" t="n">
-        <v>366.1018663125844</v>
+        <v>513.1241971476163</v>
       </c>
       <c r="W8" t="n">
-        <v>366.1018663125844</v>
+        <v>513.1241971476163</v>
       </c>
       <c r="X8" t="n">
-        <v>366.1018663125844</v>
+        <v>513.1241971476163</v>
       </c>
       <c r="Y8" t="n">
-        <v>366.1018663125844</v>
+        <v>513.1241971476163</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>487.2836868729568</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C9" t="n">
-        <v>487.2836868729568</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D9" t="n">
-        <v>487.2836868729568</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E9" t="n">
-        <v>487.2836868729568</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F9" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G9" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H9" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
         <v>20.03527576299844</v>
@@ -4892,16 +4892,16 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N9" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O9" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4910,25 +4910,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T9" t="n">
-        <v>487.2836868729568</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U9" t="n">
-        <v>487.2836868729568</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V9" t="n">
-        <v>487.2836868729568</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W9" t="n">
-        <v>487.2836868729568</v>
+        <v>396.0109115480204</v>
       </c>
       <c r="X9" t="n">
-        <v>487.2836868729568</v>
+        <v>396.0109115480204</v>
       </c>
       <c r="Y9" t="n">
-        <v>487.2836868729568</v>
+        <v>188.2506127830665</v>
       </c>
     </row>
     <row r="10">
@@ -4947,22 +4947,22 @@
         <v>151.0645035650224</v>
       </c>
       <c r="E10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1426.048009695347</v>
+        <v>863.2017159104728</v>
       </c>
       <c r="C11" t="n">
-        <v>1426.048009695347</v>
+        <v>494.2391989700611</v>
       </c>
       <c r="D11" t="n">
-        <v>1067.782311088596</v>
+        <v>135.9735003633106</v>
       </c>
       <c r="E11" t="n">
-        <v>1067.782311088596</v>
+        <v>135.9735003633106</v>
       </c>
       <c r="F11" t="n">
-        <v>656.7964062989888</v>
+        <v>135.9735003633106</v>
       </c>
       <c r="G11" t="n">
-        <v>378.3070564736033</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H11" t="n">
         <v>48.81975253256327</v>
@@ -5041,19 +5041,19 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J11" t="n">
-        <v>145.966048569732</v>
+        <v>145.9660485697318</v>
       </c>
       <c r="K11" t="n">
-        <v>412.3079679977592</v>
+        <v>412.307967997759</v>
       </c>
       <c r="L11" t="n">
-        <v>795.0052981540048</v>
+        <v>795.0052981540045</v>
       </c>
       <c r="M11" t="n">
         <v>1237.436361307048</v>
       </c>
       <c r="N11" t="n">
-        <v>1672.39442406353</v>
+        <v>1672.394424063531</v>
       </c>
       <c r="O11" t="n">
         <v>2037.925350935285</v>
@@ -5068,25 +5068,25 @@
         <v>2371.897027894854</v>
       </c>
       <c r="S11" t="n">
-        <v>2371.897027894854</v>
+        <v>2190.61837996229</v>
       </c>
       <c r="T11" t="n">
-        <v>2152.282423226541</v>
+        <v>1971.003775293977</v>
       </c>
       <c r="U11" t="n">
-        <v>2152.282423226541</v>
+        <v>1971.003775293977</v>
       </c>
       <c r="V11" t="n">
-        <v>2152.282423226541</v>
+        <v>1639.940887950406</v>
       </c>
       <c r="W11" t="n">
-        <v>1799.513767956427</v>
+        <v>1639.940887950406</v>
       </c>
       <c r="X11" t="n">
-        <v>1426.048009695347</v>
+        <v>1639.940887950406</v>
       </c>
       <c r="Y11" t="n">
-        <v>1426.048009695347</v>
+        <v>1249.801555974595</v>
       </c>
     </row>
     <row r="12">
@@ -5096,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>890.3999085640012</v>
+        <v>882.175553373567</v>
       </c>
       <c r="C12" t="n">
-        <v>715.9468792828742</v>
+        <v>707.72252409244</v>
       </c>
       <c r="D12" t="n">
-        <v>567.0124696216229</v>
+        <v>558.7881144311888</v>
       </c>
       <c r="E12" t="n">
-        <v>407.7750146161674</v>
+        <v>399.5506594257333</v>
       </c>
       <c r="F12" t="n">
-        <v>261.2404566430524</v>
+        <v>253.0161014526182</v>
       </c>
       <c r="G12" t="n">
-        <v>123.210569092214</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="H12" t="n">
         <v>114.9862139017798</v>
@@ -5165,7 +5165,7 @@
         <v>1098.160207328955</v>
       </c>
       <c r="Y12" t="n">
-        <v>890.3999085640012</v>
+        <v>1050.390890393635</v>
       </c>
     </row>
     <row r="13">
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>385.9536814748714</v>
+        <v>96.53651143791075</v>
       </c>
       <c r="C13" t="n">
-        <v>385.9536814748714</v>
+        <v>96.53651143791075</v>
       </c>
       <c r="D13" t="n">
-        <v>385.9536814748714</v>
+        <v>96.53651143791075</v>
       </c>
       <c r="E13" t="n">
-        <v>385.9536814748714</v>
+        <v>96.53651143791075</v>
       </c>
       <c r="F13" t="n">
-        <v>239.063733976961</v>
+        <v>96.53651143791075</v>
       </c>
       <c r="G13" t="n">
-        <v>239.063733976961</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H13" t="n">
-        <v>80.42258152986574</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I13" t="n">
         <v>48.81975253256327</v>
@@ -5202,7 +5202,7 @@
         <v>48.81975253256327</v>
       </c>
       <c r="K13" t="n">
-        <v>93.68771932371203</v>
+        <v>93.687719323712</v>
       </c>
       <c r="L13" t="n">
         <v>206.6297039190408</v>
@@ -5238,13 +5238,13 @@
         <v>385.9536814748714</v>
       </c>
       <c r="W13" t="n">
-        <v>385.9536814748714</v>
+        <v>96.53651143791075</v>
       </c>
       <c r="X13" t="n">
-        <v>385.9536814748714</v>
+        <v>96.53651143791075</v>
       </c>
       <c r="Y13" t="n">
-        <v>385.9536814748714</v>
+        <v>96.53651143791075</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>434.6080051308075</v>
+        <v>1014.891925964199</v>
       </c>
       <c r="C14" t="n">
-        <v>434.6080051308075</v>
+        <v>1014.891925964199</v>
       </c>
       <c r="D14" t="n">
-        <v>434.6080051308075</v>
+        <v>1014.891925964199</v>
       </c>
       <c r="E14" t="n">
-        <v>48.81975253256328</v>
+        <v>629.1036733659547</v>
       </c>
       <c r="F14" t="n">
-        <v>48.81975253256328</v>
+        <v>629.1036733659547</v>
       </c>
       <c r="G14" t="n">
-        <v>48.81975253256328</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="H14" t="n">
-        <v>48.81975253256328</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="I14" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J14" t="n">
         <v>145.966048569732</v>
       </c>
       <c r="K14" t="n">
-        <v>412.3079679977592</v>
+        <v>412.3079679977591</v>
       </c>
       <c r="L14" t="n">
-        <v>795.0052981540048</v>
+        <v>795.0052981540043</v>
       </c>
       <c r="M14" t="n">
         <v>1237.436361307048</v>
@@ -5296,34 +5296,34 @@
         <v>2037.925350935285</v>
       </c>
       <c r="P14" t="n">
-        <v>2312.223157255915</v>
+        <v>2312.223157255914</v>
       </c>
       <c r="Q14" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R14" t="n">
-        <v>2371.897027894855</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="S14" t="n">
-        <v>2190.618379962291</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="T14" t="n">
-        <v>1971.003775293977</v>
+        <v>2152.282423226541</v>
       </c>
       <c r="U14" t="n">
-        <v>1971.003775293977</v>
+        <v>1898.502729238423</v>
       </c>
       <c r="V14" t="n">
-        <v>1639.940887950407</v>
+        <v>1898.502729238423</v>
       </c>
       <c r="W14" t="n">
-        <v>1287.172232680293</v>
+        <v>1898.502729238423</v>
       </c>
       <c r="X14" t="n">
-        <v>1211.347177170741</v>
+        <v>1525.036970977343</v>
       </c>
       <c r="Y14" t="n">
-        <v>821.2078451949293</v>
+        <v>1134.897639001532</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>816.0090920043505</v>
+        <v>744.1456658227286</v>
       </c>
       <c r="C15" t="n">
-        <v>641.5560627232235</v>
+        <v>569.6926365416016</v>
       </c>
       <c r="D15" t="n">
-        <v>492.6216530619722</v>
+        <v>420.7582268803504</v>
       </c>
       <c r="E15" t="n">
-        <v>333.3841980565167</v>
+        <v>261.5207718748949</v>
       </c>
       <c r="F15" t="n">
-        <v>186.8496400834017</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="G15" t="n">
-        <v>48.81975253256328</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="H15" t="n">
-        <v>48.81975253256328</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="I15" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J15" t="n">
-        <v>81.9375139983886</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K15" t="n">
-        <v>318.2287647883257</v>
+        <v>285.1110033225004</v>
       </c>
       <c r="L15" t="n">
-        <v>697.355907913719</v>
+        <v>664.2381464478937</v>
       </c>
       <c r="M15" t="n">
-        <v>1191.758623309282</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N15" t="n">
-        <v>1714.953720827628</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O15" t="n">
-        <v>2127.159342346857</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P15" t="n">
-        <v>2440.987626628164</v>
+        <v>2407.869865162339</v>
       </c>
       <c r="Q15" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R15" t="n">
-        <v>2383.337730684676</v>
+        <v>2405.29882496347</v>
       </c>
       <c r="S15" t="n">
-        <v>2316.764520037966</v>
+        <v>2244.901093856344</v>
       </c>
       <c r="T15" t="n">
-        <v>2117.403196885135</v>
+        <v>2045.539770703513</v>
       </c>
       <c r="U15" t="n">
-        <v>1889.225692954849</v>
+        <v>1817.362266773227</v>
       </c>
       <c r="V15" t="n">
-        <v>1654.073584723107</v>
+        <v>1582.210158541485</v>
       </c>
       <c r="W15" t="n">
-        <v>1399.836227994905</v>
+        <v>1327.972801813283</v>
       </c>
       <c r="X15" t="n">
-        <v>1191.984727789372</v>
+        <v>1120.12130160775</v>
       </c>
       <c r="Y15" t="n">
-        <v>984.2244290244184</v>
+        <v>912.3610028427966</v>
       </c>
     </row>
     <row r="16">
@@ -5412,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>351.2209996437976</v>
+        <v>493.6995137284104</v>
       </c>
       <c r="C16" t="n">
-        <v>182.2848167158907</v>
+        <v>493.6995137284104</v>
       </c>
       <c r="D16" t="n">
-        <v>182.2848167158907</v>
+        <v>493.6995137284104</v>
       </c>
       <c r="E16" t="n">
-        <v>182.2848167158907</v>
+        <v>493.6995137284104</v>
       </c>
       <c r="F16" t="n">
-        <v>48.81975253256328</v>
+        <v>346.8095662305</v>
       </c>
       <c r="G16" t="n">
-        <v>48.81975253256328</v>
+        <v>346.8095662305</v>
       </c>
       <c r="H16" t="n">
-        <v>48.81975253256328</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="I16" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J16" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K16" t="n">
-        <v>93.68771932371203</v>
+        <v>93.687719323712</v>
       </c>
       <c r="L16" t="n">
         <v>206.6297039190408</v>
@@ -5472,16 +5472,16 @@
         <v>640.6381696807582</v>
       </c>
       <c r="V16" t="n">
-        <v>640.6381696807582</v>
+        <v>493.6995137284104</v>
       </c>
       <c r="W16" t="n">
-        <v>351.2209996437976</v>
+        <v>493.6995137284104</v>
       </c>
       <c r="X16" t="n">
-        <v>351.2209996437976</v>
+        <v>493.6995137284104</v>
       </c>
       <c r="Y16" t="n">
-        <v>351.2209996437976</v>
+        <v>493.6995137284104</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1538.506759376218</v>
+        <v>1572.822125467577</v>
       </c>
       <c r="C17" t="n">
-        <v>1538.506759376218</v>
+        <v>1203.859608527166</v>
       </c>
       <c r="D17" t="n">
-        <v>1538.506759376218</v>
+        <v>845.5939099204151</v>
       </c>
       <c r="E17" t="n">
-        <v>1152.718506777974</v>
+        <v>459.8056573221708</v>
       </c>
       <c r="F17" t="n">
-        <v>741.732601988366</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G17" t="n">
-        <v>378.3070564736033</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H17" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I17" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J17" t="n">
         <v>145.9660485697319</v>
@@ -5527,13 +5527,13 @@
         <v>1237.436361307048</v>
       </c>
       <c r="N17" t="n">
-        <v>1672.394424063531</v>
+        <v>1672.39442406353</v>
       </c>
       <c r="O17" t="n">
         <v>2037.925350935285</v>
       </c>
       <c r="P17" t="n">
-        <v>2312.223157255915</v>
+        <v>2312.223157255914</v>
       </c>
       <c r="Q17" t="n">
         <v>2440.987626628164</v>
@@ -5542,25 +5542,25 @@
         <v>2440.987626628164</v>
       </c>
       <c r="S17" t="n">
-        <v>2259.7089786956</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T17" t="n">
-        <v>2259.7089786956</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="U17" t="n">
-        <v>2259.7089786956</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="V17" t="n">
-        <v>1928.64609135203</v>
+        <v>2109.924739284593</v>
       </c>
       <c r="W17" t="n">
-        <v>1928.64609135203</v>
+        <v>1757.156084014479</v>
       </c>
       <c r="X17" t="n">
-        <v>1928.64609135203</v>
+        <v>1572.822125467577</v>
       </c>
       <c r="Y17" t="n">
-        <v>1538.506759376218</v>
+        <v>1572.822125467577</v>
       </c>
     </row>
     <row r="18">
@@ -5570,49 +5570,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>882.175553373567</v>
+        <v>779.8344674874215</v>
       </c>
       <c r="C18" t="n">
-        <v>707.72252409244</v>
+        <v>605.3814382062945</v>
       </c>
       <c r="D18" t="n">
-        <v>558.7881144311888</v>
+        <v>456.4470285450433</v>
       </c>
       <c r="E18" t="n">
-        <v>399.5506594257333</v>
+        <v>297.2095735395878</v>
       </c>
       <c r="F18" t="n">
-        <v>253.0161014526182</v>
+        <v>297.2095735395878</v>
       </c>
       <c r="G18" t="n">
-        <v>114.9862139017798</v>
+        <v>221.5857653620315</v>
       </c>
       <c r="H18" t="n">
         <v>114.9862139017798</v>
       </c>
       <c r="I18" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J18" t="n">
-        <v>81.9375139983886</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K18" t="n">
-        <v>318.2287647883257</v>
+        <v>349.2772920404815</v>
       </c>
       <c r="L18" t="n">
-        <v>697.355907913719</v>
+        <v>728.4044351658748</v>
       </c>
       <c r="M18" t="n">
-        <v>1191.758623309282</v>
+        <v>1222.807150561438</v>
       </c>
       <c r="N18" t="n">
-        <v>1714.953720827628</v>
+        <v>1746.002248079784</v>
       </c>
       <c r="O18" t="n">
-        <v>2127.159342346857</v>
+        <v>2158.207869599013</v>
       </c>
       <c r="P18" t="n">
-        <v>2440.987626628164</v>
+        <v>2283.899498973757</v>
       </c>
       <c r="Q18" t="n">
         <v>2440.987626628164</v>
@@ -5621,25 +5621,25 @@
         <v>2440.987626628164</v>
       </c>
       <c r="S18" t="n">
-        <v>2280.589895521038</v>
+        <v>2280.589895521037</v>
       </c>
       <c r="T18" t="n">
-        <v>2081.228572368207</v>
+        <v>2081.228572368206</v>
       </c>
       <c r="U18" t="n">
-        <v>1955.392154324066</v>
+        <v>1853.051068437921</v>
       </c>
       <c r="V18" t="n">
-        <v>1720.240046092323</v>
+        <v>1617.898960206178</v>
       </c>
       <c r="W18" t="n">
-        <v>1466.002689364122</v>
+        <v>1363.661603477976</v>
       </c>
       <c r="X18" t="n">
-        <v>1258.151189158589</v>
+        <v>1155.810103272443</v>
       </c>
       <c r="Y18" t="n">
-        <v>1050.390890393635</v>
+        <v>948.0498045074896</v>
       </c>
     </row>
     <row r="19">
@@ -5649,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>195.7097000304736</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="C19" t="n">
-        <v>195.7097000304736</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="D19" t="n">
-        <v>195.7097000304736</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="E19" t="n">
-        <v>195.7097000304736</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F19" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G19" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H19" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I19" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J19" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K19" t="n">
         <v>93.68771932371203</v>
@@ -5706,19 +5706,19 @@
         <v>640.6381696807582</v>
       </c>
       <c r="U19" t="n">
-        <v>640.6381696807582</v>
+        <v>351.4590821581505</v>
       </c>
       <c r="V19" t="n">
-        <v>385.9536814748714</v>
+        <v>96.77459395226364</v>
       </c>
       <c r="W19" t="n">
-        <v>385.9536814748714</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="X19" t="n">
-        <v>385.9536814748714</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="Y19" t="n">
-        <v>195.7097000304736</v>
+        <v>48.81975253256327</v>
       </c>
     </row>
     <row r="20">
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1129.910631765282</v>
+        <v>1214.556426860827</v>
       </c>
       <c r="C20" t="n">
-        <v>1129.910631765282</v>
+        <v>845.5939099204151</v>
       </c>
       <c r="D20" t="n">
-        <v>771.6449331585311</v>
+        <v>845.5939099204151</v>
       </c>
       <c r="E20" t="n">
-        <v>385.8566805602869</v>
+        <v>459.8056573221708</v>
       </c>
       <c r="F20" t="n">
-        <v>385.8566805602869</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="G20" t="n">
-        <v>385.8566805602869</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="H20" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="I20" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J20" t="n">
         <v>145.9660485697319</v>
@@ -5764,13 +5764,13 @@
         <v>1237.436361307048</v>
       </c>
       <c r="N20" t="n">
-        <v>1672.39442406353</v>
+        <v>1672.394424063531</v>
       </c>
       <c r="O20" t="n">
         <v>2037.925350935285</v>
       </c>
       <c r="P20" t="n">
-        <v>2312.223157255914</v>
+        <v>2312.223157255915</v>
       </c>
       <c r="Q20" t="n">
         <v>2440.987626628164</v>
@@ -5779,25 +5779,25 @@
         <v>2440.987626628164</v>
       </c>
       <c r="S20" t="n">
-        <v>2440.987626628164</v>
+        <v>2259.7089786956</v>
       </c>
       <c r="T20" t="n">
-        <v>2440.987626628164</v>
+        <v>2040.094374027287</v>
       </c>
       <c r="U20" t="n">
-        <v>2187.207932640046</v>
+        <v>2040.094374027287</v>
       </c>
       <c r="V20" t="n">
-        <v>1856.145045296475</v>
+        <v>2040.094374027287</v>
       </c>
       <c r="W20" t="n">
-        <v>1503.376390026361</v>
+        <v>2040.094374027287</v>
       </c>
       <c r="X20" t="n">
-        <v>1129.910631765282</v>
+        <v>1666.628615766207</v>
       </c>
       <c r="Y20" t="n">
-        <v>1129.910631765282</v>
+        <v>1601.156266924949</v>
       </c>
     </row>
     <row r="21">
@@ -5807,49 +5807,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>816.0090920043505</v>
+        <v>922.6086434646021</v>
       </c>
       <c r="C21" t="n">
-        <v>641.5560627232235</v>
+        <v>748.1556141834751</v>
       </c>
       <c r="D21" t="n">
-        <v>492.6216530619722</v>
+        <v>599.2212045222238</v>
       </c>
       <c r="E21" t="n">
-        <v>333.3841980565167</v>
+        <v>439.9837495167684</v>
       </c>
       <c r="F21" t="n">
-        <v>186.8496400834017</v>
+        <v>293.4491915436533</v>
       </c>
       <c r="G21" t="n">
-        <v>48.81975253256327</v>
+        <v>155.419303992815</v>
       </c>
       <c r="H21" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="I21" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J21" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="K21" t="n">
-        <v>161.1406371339188</v>
+        <v>285.1110033225004</v>
       </c>
       <c r="L21" t="n">
-        <v>540.2677802593121</v>
+        <v>664.2381464478937</v>
       </c>
       <c r="M21" t="n">
-        <v>1034.670495654875</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N21" t="n">
-        <v>1557.865593173221</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O21" t="n">
-        <v>1970.07121469245</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.899498973757</v>
+        <v>2407.869865162339</v>
       </c>
       <c r="Q21" t="n">
         <v>2440.987626628164</v>
@@ -5858,25 +5858,25 @@
         <v>2440.987626628164</v>
       </c>
       <c r="S21" t="n">
-        <v>2280.589895521037</v>
+        <v>2423.364071498218</v>
       </c>
       <c r="T21" t="n">
-        <v>2081.228572368206</v>
+        <v>2224.002748345386</v>
       </c>
       <c r="U21" t="n">
-        <v>1889.225692954849</v>
+        <v>1995.825244415101</v>
       </c>
       <c r="V21" t="n">
-        <v>1654.073584723107</v>
+        <v>1760.673136183358</v>
       </c>
       <c r="W21" t="n">
-        <v>1399.836227994905</v>
+        <v>1506.435779455157</v>
       </c>
       <c r="X21" t="n">
-        <v>1191.984727789372</v>
+        <v>1298.584279249624</v>
       </c>
       <c r="Y21" t="n">
-        <v>984.2244290244184</v>
+        <v>1090.82398048467</v>
       </c>
     </row>
     <row r="22">
@@ -5886,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>48.81975253256327</v>
+        <v>487.9764913965093</v>
       </c>
       <c r="C22" t="n">
-        <v>48.81975253256327</v>
+        <v>319.0403084686025</v>
       </c>
       <c r="D22" t="n">
-        <v>48.81975253256327</v>
+        <v>319.0403084686025</v>
       </c>
       <c r="E22" t="n">
-        <v>48.81975253256327</v>
+        <v>319.0403084686025</v>
       </c>
       <c r="F22" t="n">
-        <v>48.81975253256327</v>
+        <v>319.0403084686025</v>
       </c>
       <c r="G22" t="n">
-        <v>48.81975253256327</v>
+        <v>149.9400932920486</v>
       </c>
       <c r="H22" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="I22" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J22" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="K22" t="n">
         <v>93.68771932371203</v>
@@ -5934,28 +5934,28 @@
         <v>640.6381696807582</v>
       </c>
       <c r="R22" t="n">
-        <v>640.6381696807582</v>
+        <v>487.9764913965093</v>
       </c>
       <c r="S22" t="n">
-        <v>640.6381696807582</v>
+        <v>487.9764913965093</v>
       </c>
       <c r="T22" t="n">
-        <v>640.6381696807582</v>
+        <v>487.9764913965093</v>
       </c>
       <c r="U22" t="n">
-        <v>640.6381696807582</v>
+        <v>487.9764913965093</v>
       </c>
       <c r="V22" t="n">
-        <v>385.9536814748714</v>
+        <v>487.9764913965093</v>
       </c>
       <c r="W22" t="n">
-        <v>269.6123316760934</v>
+        <v>487.9764913965093</v>
       </c>
       <c r="X22" t="n">
-        <v>269.6123316760934</v>
+        <v>487.9764913965093</v>
       </c>
       <c r="Y22" t="n">
-        <v>48.81975253256327</v>
+        <v>487.9764913965093</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>659.926780431095</v>
+        <v>1469.545205232354</v>
       </c>
       <c r="C23" t="n">
-        <v>659.926780431095</v>
+        <v>1100.582688291943</v>
       </c>
       <c r="D23" t="n">
-        <v>301.6610818243445</v>
+        <v>742.3169896851921</v>
       </c>
       <c r="E23" t="n">
-        <v>48.81975253256328</v>
+        <v>356.5287370869478</v>
       </c>
       <c r="F23" t="n">
-        <v>48.81975253256328</v>
+        <v>356.5287370869478</v>
       </c>
       <c r="G23" t="n">
         <v>48.81975253256328</v>
@@ -5989,13 +5989,13 @@
         <v>48.81975253256328</v>
       </c>
       <c r="J23" t="n">
-        <v>145.9660485697318</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K23" t="n">
-        <v>412.307967997759</v>
+        <v>412.3079679977591</v>
       </c>
       <c r="L23" t="n">
-        <v>795.0052981540045</v>
+        <v>795.0052981540047</v>
       </c>
       <c r="M23" t="n">
         <v>1237.436361307048</v>
@@ -6013,28 +6013,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R23" t="n">
-        <v>2371.897027894855</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S23" t="n">
-        <v>2190.618379962291</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T23" t="n">
-        <v>1971.003775293977</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="U23" t="n">
-        <v>1717.22408130586</v>
+        <v>2187.207932640047</v>
       </c>
       <c r="V23" t="n">
-        <v>1386.161193962289</v>
+        <v>1856.145045296476</v>
       </c>
       <c r="W23" t="n">
-        <v>1033.392538692175</v>
+        <v>1856.145045296476</v>
       </c>
       <c r="X23" t="n">
-        <v>659.926780431095</v>
+        <v>1856.145045296476</v>
       </c>
       <c r="Y23" t="n">
-        <v>659.926780431095</v>
+        <v>1856.145045296476</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>930.0360717494664</v>
+        <v>784.5787559137638</v>
       </c>
       <c r="C24" t="n">
-        <v>755.5830424683394</v>
+        <v>610.1257266326368</v>
       </c>
       <c r="D24" t="n">
-        <v>606.6486328070881</v>
+        <v>461.1913169713855</v>
       </c>
       <c r="E24" t="n">
-        <v>447.4111778016326</v>
+        <v>301.95386196593</v>
       </c>
       <c r="F24" t="n">
-        <v>300.8766198285176</v>
+        <v>155.419303992815</v>
       </c>
       <c r="G24" t="n">
-        <v>162.8467322776792</v>
+        <v>155.419303992815</v>
       </c>
       <c r="H24" t="n">
-        <v>56.24718081742753</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="I24" t="n">
         <v>48.81975253256328</v>
       </c>
       <c r="J24" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="K24" t="n">
-        <v>349.2772920404815</v>
+        <v>285.1110033225004</v>
       </c>
       <c r="L24" t="n">
-        <v>728.4044351658748</v>
+        <v>664.2381464478937</v>
       </c>
       <c r="M24" t="n">
-        <v>1222.807150561438</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N24" t="n">
-        <v>1557.865593173221</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O24" t="n">
-        <v>1970.07121469245</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.899498973758</v>
+        <v>2407.869865162339</v>
       </c>
       <c r="Q24" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R24" t="n">
-        <v>2383.337730684676</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S24" t="n">
-        <v>2222.939999577549</v>
+        <v>2285.334183947379</v>
       </c>
       <c r="T24" t="n">
-        <v>2023.578676424718</v>
+        <v>2085.972860794548</v>
       </c>
       <c r="U24" t="n">
-        <v>1795.401172494433</v>
+        <v>1857.795356864263</v>
       </c>
       <c r="V24" t="n">
-        <v>1560.24906426269</v>
+        <v>1622.64324863252</v>
       </c>
       <c r="W24" t="n">
-        <v>1306.011707534488</v>
+        <v>1368.405891904318</v>
       </c>
       <c r="X24" t="n">
-        <v>1306.011707534488</v>
+        <v>1160.554391698786</v>
       </c>
       <c r="Y24" t="n">
-        <v>1098.251408769534</v>
+        <v>952.7940929338317</v>
       </c>
     </row>
     <row r="25">
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>217.7559354604702</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="C25" t="n">
-        <v>48.81975253256328</v>
+        <v>255.6636054634047</v>
       </c>
       <c r="D25" t="n">
-        <v>48.81975253256328</v>
+        <v>255.6636054634047</v>
       </c>
       <c r="E25" t="n">
-        <v>48.81975253256328</v>
+        <v>255.6636054634047</v>
       </c>
       <c r="F25" t="n">
-        <v>48.81975253256328</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="G25" t="n">
-        <v>48.81975253256328</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="H25" t="n">
         <v>48.81975253256328</v>
@@ -6174,25 +6174,25 @@
         <v>640.6381696807582</v>
       </c>
       <c r="S25" t="n">
-        <v>640.6381696807582</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="T25" t="n">
-        <v>640.6381696807582</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="U25" t="n">
-        <v>640.6381696807582</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="V25" t="n">
-        <v>399.4044002907099</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="W25" t="n">
-        <v>399.4044002907099</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="X25" t="n">
-        <v>399.4044002907099</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="Y25" t="n">
-        <v>399.4044002907099</v>
+        <v>424.5997883913116</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1605.221538798759</v>
+        <v>1290.78269632715</v>
       </c>
       <c r="C26" t="n">
-        <v>1236.259021858348</v>
+        <v>921.8201793867386</v>
       </c>
       <c r="D26" t="n">
-        <v>877.9933232515971</v>
+        <v>563.5544807799881</v>
       </c>
       <c r="E26" t="n">
-        <v>877.9933232515971</v>
+        <v>459.8056573221708</v>
       </c>
       <c r="F26" t="n">
-        <v>467.0074184619895</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G26" t="n">
         <v>48.81975253256327</v>
@@ -6250,28 +6250,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R26" t="n">
-        <v>2381.960710838693</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S26" t="n">
-        <v>2381.960710838693</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T26" t="n">
-        <v>2381.960710838693</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="U26" t="n">
-        <v>2381.960710838693</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="V26" t="n">
-        <v>2381.960710838693</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="W26" t="n">
-        <v>2381.960710838693</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="X26" t="n">
-        <v>2381.960710838693</v>
+        <v>2067.521868367084</v>
       </c>
       <c r="Y26" t="n">
-        <v>1991.821378862881</v>
+        <v>1677.382536391272</v>
       </c>
     </row>
     <row r="27">
@@ -6281,19 +6281,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>816.0090920043505</v>
+        <v>722.1845715439331</v>
       </c>
       <c r="C27" t="n">
-        <v>641.5560627232235</v>
+        <v>547.7315422628061</v>
       </c>
       <c r="D27" t="n">
-        <v>492.6216530619722</v>
+        <v>398.7971326015548</v>
       </c>
       <c r="E27" t="n">
-        <v>333.3841980565167</v>
+        <v>239.5596775960993</v>
       </c>
       <c r="F27" t="n">
-        <v>186.8496400834017</v>
+        <v>93.02511962298431</v>
       </c>
       <c r="G27" t="n">
         <v>48.81975253256327</v>
@@ -6305,52 +6305,52 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J27" t="n">
-        <v>48.81975253256327</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K27" t="n">
-        <v>285.1110033225004</v>
+        <v>349.2772920404815</v>
       </c>
       <c r="L27" t="n">
-        <v>664.2381464478937</v>
+        <v>728.4044351658748</v>
       </c>
       <c r="M27" t="n">
-        <v>1158.640861843456</v>
+        <v>1222.807150561438</v>
       </c>
       <c r="N27" t="n">
-        <v>1681.835959361802</v>
+        <v>1746.002248079784</v>
       </c>
       <c r="O27" t="n">
-        <v>2094.041580881031</v>
+        <v>2158.207869599013</v>
       </c>
       <c r="P27" t="n">
-        <v>2407.869865162339</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="Q27" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R27" t="n">
-        <v>2440.987626628164</v>
+        <v>2383.337730684675</v>
       </c>
       <c r="S27" t="n">
-        <v>2316.764520037966</v>
+        <v>2222.939999577549</v>
       </c>
       <c r="T27" t="n">
-        <v>2117.403196885135</v>
+        <v>2023.578676424718</v>
       </c>
       <c r="U27" t="n">
-        <v>1889.225692954849</v>
+        <v>1795.401172494432</v>
       </c>
       <c r="V27" t="n">
-        <v>1654.073584723107</v>
+        <v>1560.249064262689</v>
       </c>
       <c r="W27" t="n">
-        <v>1399.836227994905</v>
+        <v>1306.011707534488</v>
       </c>
       <c r="X27" t="n">
-        <v>1191.984727789372</v>
+        <v>1098.160207328955</v>
       </c>
       <c r="Y27" t="n">
-        <v>984.2244290244184</v>
+        <v>890.3999085640012</v>
       </c>
     </row>
     <row r="28">
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>48.81975253256327</v>
+        <v>602.8128707069468</v>
       </c>
       <c r="C28" t="n">
-        <v>48.81975253256327</v>
+        <v>602.8128707069468</v>
       </c>
       <c r="D28" t="n">
-        <v>48.81975253256327</v>
+        <v>452.696231294611</v>
       </c>
       <c r="E28" t="n">
-        <v>48.81975253256327</v>
+        <v>304.7831377122179</v>
       </c>
       <c r="F28" t="n">
-        <v>48.81975253256327</v>
+        <v>157.8931902143076</v>
       </c>
       <c r="G28" t="n">
-        <v>48.81975253256327</v>
+        <v>157.8931902143076</v>
       </c>
       <c r="H28" t="n">
         <v>48.81975253256327</v>
@@ -6405,31 +6405,31 @@
         <v>640.6381696807582</v>
       </c>
       <c r="Q28" t="n">
-        <v>640.6381696807582</v>
+        <v>602.8128707069468</v>
       </c>
       <c r="R28" t="n">
-        <v>640.6381696807582</v>
+        <v>602.8128707069468</v>
       </c>
       <c r="S28" t="n">
-        <v>531.2414736152716</v>
+        <v>602.8128707069468</v>
       </c>
       <c r="T28" t="n">
-        <v>303.5042407384502</v>
+        <v>602.8128707069468</v>
       </c>
       <c r="U28" t="n">
-        <v>303.5042407384502</v>
+        <v>602.8128707069468</v>
       </c>
       <c r="V28" t="n">
-        <v>48.81975253256327</v>
+        <v>602.8128707069468</v>
       </c>
       <c r="W28" t="n">
-        <v>48.81975253256327</v>
+        <v>602.8128707069468</v>
       </c>
       <c r="X28" t="n">
-        <v>48.81975253256327</v>
+        <v>602.8128707069468</v>
       </c>
       <c r="Y28" t="n">
-        <v>48.81975253256327</v>
+        <v>602.8128707069468</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1455.251792695598</v>
+        <v>1322.097742093798</v>
       </c>
       <c r="C29" t="n">
-        <v>1086.289275755186</v>
+        <v>1322.097742093798</v>
       </c>
       <c r="D29" t="n">
-        <v>728.0235771484358</v>
+        <v>963.8320434870477</v>
       </c>
       <c r="E29" t="n">
-        <v>728.0235771484358</v>
+        <v>578.0437908888034</v>
       </c>
       <c r="F29" t="n">
-        <v>317.0376723588283</v>
+        <v>540.4033113775685</v>
       </c>
       <c r="G29" t="n">
-        <v>48.81975253256327</v>
+        <v>540.4033113775685</v>
       </c>
       <c r="H29" t="n">
-        <v>48.81975253256327</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="I29" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J29" t="n">
-        <v>145.966048569732</v>
+        <v>145.9660485697318</v>
       </c>
       <c r="K29" t="n">
-        <v>412.3079679977592</v>
+        <v>412.3079679977591</v>
       </c>
       <c r="L29" t="n">
         <v>795.0052981540048</v>
@@ -6475,13 +6475,13 @@
         <v>1237.436361307048</v>
       </c>
       <c r="N29" t="n">
-        <v>1672.39442406353</v>
+        <v>1672.394424063531</v>
       </c>
       <c r="O29" t="n">
         <v>2037.925350935285</v>
       </c>
       <c r="P29" t="n">
-        <v>2312.223157255914</v>
+        <v>2312.223157255915</v>
       </c>
       <c r="Q29" t="n">
         <v>2440.987626628164</v>
@@ -6493,22 +6493,22 @@
         <v>2259.7089786956</v>
       </c>
       <c r="T29" t="n">
-        <v>2040.094374027286</v>
+        <v>2259.7089786956</v>
       </c>
       <c r="U29" t="n">
-        <v>1786.314680039169</v>
+        <v>2005.929284707483</v>
       </c>
       <c r="V29" t="n">
-        <v>1455.251792695598</v>
+        <v>1674.866397363912</v>
       </c>
       <c r="W29" t="n">
-        <v>1455.251792695598</v>
+        <v>1322.097742093798</v>
       </c>
       <c r="X29" t="n">
-        <v>1455.251792695598</v>
+        <v>1322.097742093798</v>
       </c>
       <c r="Y29" t="n">
-        <v>1455.251792695598</v>
+        <v>1322.097742093798</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>816.0090920043505</v>
+        <v>722.1845715439335</v>
       </c>
       <c r="C30" t="n">
-        <v>641.5560627232235</v>
+        <v>547.7315422628066</v>
       </c>
       <c r="D30" t="n">
-        <v>492.6216530619722</v>
+        <v>398.7971326015553</v>
       </c>
       <c r="E30" t="n">
-        <v>333.3841980565167</v>
+        <v>239.5596775960998</v>
       </c>
       <c r="F30" t="n">
-        <v>186.8496400834017</v>
+        <v>93.02511962298476</v>
       </c>
       <c r="G30" t="n">
-        <v>48.81975253256327</v>
+        <v>93.02511962298476</v>
       </c>
       <c r="H30" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="I30" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J30" t="n">
-        <v>48.81975253256327</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K30" t="n">
-        <v>161.1406371339188</v>
+        <v>318.2287647883257</v>
       </c>
       <c r="L30" t="n">
-        <v>540.2677802593121</v>
+        <v>697.355907913719</v>
       </c>
       <c r="M30" t="n">
-        <v>1034.670495654875</v>
+        <v>1191.758623309282</v>
       </c>
       <c r="N30" t="n">
-        <v>1557.865593173221</v>
+        <v>1714.953720827628</v>
       </c>
       <c r="O30" t="n">
-        <v>1970.07121469245</v>
+        <v>2127.159342346857</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.899498973757</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="Q30" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R30" t="n">
-        <v>2383.337730684675</v>
+        <v>2383.337730684676</v>
       </c>
       <c r="S30" t="n">
-        <v>2316.764520037966</v>
+        <v>2222.939999577549</v>
       </c>
       <c r="T30" t="n">
-        <v>2117.403196885135</v>
+        <v>2023.578676424718</v>
       </c>
       <c r="U30" t="n">
-        <v>1889.225692954849</v>
+        <v>1795.401172494433</v>
       </c>
       <c r="V30" t="n">
-        <v>1654.073584723107</v>
+        <v>1560.24906426269</v>
       </c>
       <c r="W30" t="n">
-        <v>1399.836227994905</v>
+        <v>1306.011707534488</v>
       </c>
       <c r="X30" t="n">
-        <v>1191.984727789372</v>
+        <v>1098.160207328955</v>
       </c>
       <c r="Y30" t="n">
-        <v>984.2244290244184</v>
+        <v>890.3999085640016</v>
       </c>
     </row>
     <row r="31">
@@ -6597,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>195.7097000304736</v>
+        <v>217.9199677091172</v>
       </c>
       <c r="C31" t="n">
-        <v>195.7097000304736</v>
+        <v>217.9199677091172</v>
       </c>
       <c r="D31" t="n">
-        <v>195.7097000304736</v>
+        <v>217.9199677091172</v>
       </c>
       <c r="E31" t="n">
-        <v>195.7097000304736</v>
+        <v>217.9199677091172</v>
       </c>
       <c r="F31" t="n">
-        <v>48.81975253256327</v>
+        <v>217.9199677091172</v>
       </c>
       <c r="G31" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="H31" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="I31" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J31" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="K31" t="n">
         <v>93.68771932371203</v>
@@ -6648,25 +6648,25 @@
         <v>640.6381696807582</v>
       </c>
       <c r="S31" t="n">
-        <v>640.6381696807582</v>
+        <v>445.6572005859387</v>
       </c>
       <c r="T31" t="n">
-        <v>640.6381696807582</v>
+        <v>217.9199677091172</v>
       </c>
       <c r="U31" t="n">
-        <v>640.6381696807582</v>
+        <v>217.9199677091172</v>
       </c>
       <c r="V31" t="n">
-        <v>385.9536814748714</v>
+        <v>217.9199677091172</v>
       </c>
       <c r="W31" t="n">
-        <v>385.9536814748714</v>
+        <v>217.9199677091172</v>
       </c>
       <c r="X31" t="n">
-        <v>385.9536814748714</v>
+        <v>217.9199677091172</v>
       </c>
       <c r="Y31" t="n">
-        <v>195.7097000304736</v>
+        <v>217.9199677091172</v>
       </c>
     </row>
     <row r="32">
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1182.282975001274</v>
+        <v>1890.31013461628</v>
       </c>
       <c r="C32" t="n">
-        <v>1182.282975001274</v>
+        <v>1890.31013461628</v>
       </c>
       <c r="D32" t="n">
-        <v>1182.282975001274</v>
+        <v>1532.044436009529</v>
       </c>
       <c r="E32" t="n">
-        <v>796.4947224030295</v>
+        <v>1146.256183411285</v>
       </c>
       <c r="F32" t="n">
-        <v>796.4947224030295</v>
+        <v>735.2702786216776</v>
       </c>
       <c r="G32" t="n">
-        <v>378.3070564736033</v>
+        <v>317.0826126922513</v>
       </c>
       <c r="H32" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="I32" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J32" t="n">
         <v>145.966048569732</v>
@@ -6727,25 +6727,25 @@
         <v>2440.987626628164</v>
       </c>
       <c r="S32" t="n">
-        <v>2259.7089786956</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T32" t="n">
-        <v>2040.094374027287</v>
+        <v>2221.373021959851</v>
       </c>
       <c r="U32" t="n">
-        <v>2040.094374027287</v>
+        <v>2221.373021959851</v>
       </c>
       <c r="V32" t="n">
-        <v>2040.094374027287</v>
+        <v>1890.31013461628</v>
       </c>
       <c r="W32" t="n">
-        <v>1687.325718757173</v>
+        <v>1890.31013461628</v>
       </c>
       <c r="X32" t="n">
-        <v>1687.325718757173</v>
+        <v>1890.31013461628</v>
       </c>
       <c r="Y32" t="n">
-        <v>1568.882815065396</v>
+        <v>1890.31013461628</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>784.5787559137638</v>
+        <v>722.1845715439335</v>
       </c>
       <c r="C33" t="n">
-        <v>610.1257266326368</v>
+        <v>547.7315422628066</v>
       </c>
       <c r="D33" t="n">
-        <v>461.1913169713854</v>
+        <v>398.7971326015553</v>
       </c>
       <c r="E33" t="n">
-        <v>301.9538619659299</v>
+        <v>239.5596775960998</v>
       </c>
       <c r="F33" t="n">
-        <v>155.4193039928149</v>
+        <v>93.02511962298476</v>
       </c>
       <c r="G33" t="n">
-        <v>155.4193039928149</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="H33" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="I33" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J33" t="n">
-        <v>48.81975253256327</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K33" t="n">
-        <v>161.1406371339188</v>
+        <v>318.2287647883257</v>
       </c>
       <c r="L33" t="n">
-        <v>540.2677802593121</v>
+        <v>697.355907913719</v>
       </c>
       <c r="M33" t="n">
-        <v>1034.670495654875</v>
+        <v>1191.758623309282</v>
       </c>
       <c r="N33" t="n">
-        <v>1557.865593173221</v>
+        <v>1714.953720827628</v>
       </c>
       <c r="O33" t="n">
-        <v>1970.07121469245</v>
+        <v>2127.159342346857</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.899498973757</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="Q33" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R33" t="n">
-        <v>2383.337730684675</v>
+        <v>2383.337730684676</v>
       </c>
       <c r="S33" t="n">
         <v>2222.939999577549</v>
       </c>
       <c r="T33" t="n">
-        <v>2085.972860794548</v>
+        <v>2023.578676424718</v>
       </c>
       <c r="U33" t="n">
-        <v>1857.795356864263</v>
+        <v>1795.401172494433</v>
       </c>
       <c r="V33" t="n">
-        <v>1622.64324863252</v>
+        <v>1560.24906426269</v>
       </c>
       <c r="W33" t="n">
-        <v>1368.405891904318</v>
+        <v>1306.011707534488</v>
       </c>
       <c r="X33" t="n">
-        <v>1160.554391698786</v>
+        <v>1098.160207328955</v>
       </c>
       <c r="Y33" t="n">
-        <v>952.7940929338317</v>
+        <v>890.3999085640016</v>
       </c>
     </row>
     <row r="34">
@@ -6834,31 +6834,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>640.6381696807582</v>
+        <v>357.1045967113116</v>
       </c>
       <c r="C34" t="n">
-        <v>471.7019867528513</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="D34" t="n">
-        <v>321.5853473405156</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="E34" t="n">
-        <v>173.6722537581225</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="F34" t="n">
-        <v>48.81975253256327</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="G34" t="n">
-        <v>48.81975253256327</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="H34" t="n">
-        <v>48.81975253256327</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="I34" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J34" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="K34" t="n">
         <v>93.68771932371203</v>
@@ -6888,22 +6888,22 @@
         <v>640.6381696807582</v>
       </c>
       <c r="T34" t="n">
-        <v>640.6381696807582</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="U34" t="n">
-        <v>640.6381696807582</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="V34" t="n">
-        <v>640.6381696807582</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="W34" t="n">
-        <v>640.6381696807582</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="X34" t="n">
-        <v>640.6381696807582</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="Y34" t="n">
-        <v>640.6381696807582</v>
+        <v>412.9009368039367</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1246.955840192009</v>
+        <v>1572.822125467577</v>
       </c>
       <c r="C35" t="n">
-        <v>877.9933232515971</v>
+        <v>1203.859608527166</v>
       </c>
       <c r="D35" t="n">
-        <v>877.9933232515971</v>
+        <v>845.5939099204151</v>
       </c>
       <c r="E35" t="n">
-        <v>877.9933232515971</v>
+        <v>459.8056573221708</v>
       </c>
       <c r="F35" t="n">
-        <v>467.0074184619895</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="G35" t="n">
         <v>48.81975253256328</v>
@@ -6970,19 +6970,19 @@
         <v>2371.897027894855</v>
       </c>
       <c r="U35" t="n">
-        <v>2118.117333906737</v>
+        <v>2371.897027894855</v>
       </c>
       <c r="V35" t="n">
-        <v>1787.054446563166</v>
+        <v>2371.897027894855</v>
       </c>
       <c r="W35" t="n">
-        <v>1620.421598453089</v>
+        <v>2349.561297507511</v>
       </c>
       <c r="X35" t="n">
-        <v>1246.955840192009</v>
+        <v>2349.561297507511</v>
       </c>
       <c r="Y35" t="n">
-        <v>1246.955840192009</v>
+        <v>1959.421965531699</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.7751048338188</v>
+        <v>722.1845715439335</v>
       </c>
       <c r="C36" t="n">
-        <v>814.3220755526918</v>
+        <v>547.7315422628066</v>
       </c>
       <c r="D36" t="n">
-        <v>665.3876658914405</v>
+        <v>398.7971326015553</v>
       </c>
       <c r="E36" t="n">
-        <v>506.150210885985</v>
+        <v>239.5596775960998</v>
       </c>
       <c r="F36" t="n">
-        <v>359.6156529128699</v>
+        <v>93.02511962298476</v>
       </c>
       <c r="G36" t="n">
-        <v>221.5857653620315</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="H36" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="I36" t="n">
         <v>48.81975253256328</v>
       </c>
       <c r="J36" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="K36" t="n">
-        <v>349.2772920404815</v>
+        <v>285.1110033225004</v>
       </c>
       <c r="L36" t="n">
-        <v>728.4044351658748</v>
+        <v>664.2381464478937</v>
       </c>
       <c r="M36" t="n">
-        <v>1222.807150561438</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N36" t="n">
-        <v>1557.865593173221</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O36" t="n">
-        <v>1970.07121469245</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.899498973758</v>
+        <v>2407.869865162339</v>
       </c>
       <c r="Q36" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R36" t="n">
-        <v>2440.987626628164</v>
+        <v>2383.337730684676</v>
       </c>
       <c r="S36" t="n">
-        <v>2440.987626628164</v>
+        <v>2222.939999577549</v>
       </c>
       <c r="T36" t="n">
-        <v>2241.626303475333</v>
+        <v>2023.578676424718</v>
       </c>
       <c r="U36" t="n">
-        <v>2061.991705784318</v>
+        <v>1795.401172494433</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.839597552575</v>
+        <v>1560.24906426269</v>
       </c>
       <c r="W36" t="n">
-        <v>1572.602240824373</v>
+        <v>1306.011707534488</v>
       </c>
       <c r="X36" t="n">
-        <v>1364.750740618841</v>
+        <v>1098.160207328955</v>
       </c>
       <c r="Y36" t="n">
-        <v>1156.990441853887</v>
+        <v>890.3999085640016</v>
       </c>
     </row>
     <row r="37">
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>123.2314487457803</v>
+        <v>198.936391944899</v>
       </c>
       <c r="C37" t="n">
-        <v>123.2314487457803</v>
+        <v>198.936391944899</v>
       </c>
       <c r="D37" t="n">
-        <v>123.2314487457803</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="E37" t="n">
-        <v>123.2314487457803</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="F37" t="n">
         <v>48.81975253256328</v>
@@ -7122,25 +7122,25 @@
         <v>640.6381696807582</v>
       </c>
       <c r="S37" t="n">
-        <v>640.6381696807582</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="T37" t="n">
-        <v>640.6381696807582</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="U37" t="n">
-        <v>640.6381696807582</v>
+        <v>198.936391944899</v>
       </c>
       <c r="V37" t="n">
-        <v>640.6381696807582</v>
+        <v>198.936391944899</v>
       </c>
       <c r="W37" t="n">
-        <v>351.2209996437976</v>
+        <v>198.936391944899</v>
       </c>
       <c r="X37" t="n">
-        <v>123.2314487457803</v>
+        <v>198.936391944899</v>
       </c>
       <c r="Y37" t="n">
-        <v>123.2314487457803</v>
+        <v>198.936391944899</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>877.9933232515971</v>
+        <v>1102.483137425484</v>
       </c>
       <c r="C38" t="n">
-        <v>877.9933232515971</v>
+        <v>1102.483137425484</v>
       </c>
       <c r="D38" t="n">
-        <v>877.9933232515971</v>
+        <v>744.2174388187339</v>
       </c>
       <c r="E38" t="n">
-        <v>877.9933232515971</v>
+        <v>744.2174388187339</v>
       </c>
       <c r="F38" t="n">
-        <v>467.0074184619895</v>
+        <v>333.2315340291263</v>
       </c>
       <c r="G38" t="n">
         <v>48.81975253256328</v>
@@ -7174,7 +7174,7 @@
         <v>48.81975253256328</v>
       </c>
       <c r="J38" t="n">
-        <v>145.9660485697318</v>
+        <v>145.9660485697319</v>
       </c>
       <c r="K38" t="n">
         <v>412.3079679977591</v>
@@ -7198,28 +7198,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R38" t="n">
-        <v>2371.897027894855</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S38" t="n">
-        <v>2371.897027894855</v>
+        <v>2259.7089786956</v>
       </c>
       <c r="T38" t="n">
-        <v>2261.280844549762</v>
+        <v>2040.094374027287</v>
       </c>
       <c r="U38" t="n">
-        <v>2007.501150561645</v>
+        <v>1786.314680039169</v>
       </c>
       <c r="V38" t="n">
-        <v>2007.501150561645</v>
+        <v>1455.251792695598</v>
       </c>
       <c r="W38" t="n">
-        <v>1654.732495291531</v>
+        <v>1102.483137425484</v>
       </c>
       <c r="X38" t="n">
-        <v>1654.732495291531</v>
+        <v>1102.483137425484</v>
       </c>
       <c r="Y38" t="n">
-        <v>1264.593163315719</v>
+        <v>1102.483137425484</v>
       </c>
     </row>
     <row r="39">
@@ -7229,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.7751048338188</v>
+        <v>957.3366797756762</v>
       </c>
       <c r="C39" t="n">
-        <v>814.3220755526918</v>
+        <v>782.8836504945492</v>
       </c>
       <c r="D39" t="n">
-        <v>665.3876658914405</v>
+        <v>633.9492408332979</v>
       </c>
       <c r="E39" t="n">
-        <v>506.150210885985</v>
+        <v>474.7117858278424</v>
       </c>
       <c r="F39" t="n">
-        <v>359.6156529128699</v>
+        <v>328.1772278547274</v>
       </c>
       <c r="G39" t="n">
         <v>221.5857653620315</v>
@@ -7265,40 +7265,40 @@
         <v>1222.807150561438</v>
       </c>
       <c r="N39" t="n">
-        <v>1746.002248079784</v>
+        <v>1557.865593173221</v>
       </c>
       <c r="O39" t="n">
-        <v>2158.207869599013</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P39" t="n">
-        <v>2440.987626628164</v>
+        <v>2283.899498973758</v>
       </c>
       <c r="Q39" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R39" t="n">
-        <v>2440.987626628164</v>
+        <v>2383.337730684676</v>
       </c>
       <c r="S39" t="n">
-        <v>2280.589895521038</v>
+        <v>2222.939999577549</v>
       </c>
       <c r="T39" t="n">
-        <v>2081.228572368207</v>
+        <v>2023.578676424718</v>
       </c>
       <c r="U39" t="n">
-        <v>1853.051068437921</v>
+        <v>1795.401172494433</v>
       </c>
       <c r="V39" t="n">
-        <v>1617.898960206178</v>
+        <v>1795.401172494433</v>
       </c>
       <c r="W39" t="n">
-        <v>1572.602240824373</v>
+        <v>1541.163815766231</v>
       </c>
       <c r="X39" t="n">
-        <v>1364.750740618841</v>
+        <v>1333.312315560698</v>
       </c>
       <c r="Y39" t="n">
-        <v>1156.990441853887</v>
+        <v>1125.552016795744</v>
       </c>
     </row>
     <row r="40">
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>385.9536814748714</v>
+        <v>196.8625555144901</v>
       </c>
       <c r="C40" t="n">
-        <v>217.0174985469644</v>
+        <v>196.8625555144901</v>
       </c>
       <c r="D40" t="n">
-        <v>217.0174985469644</v>
+        <v>196.8625555144901</v>
       </c>
       <c r="E40" t="n">
-        <v>217.0174985469644</v>
+        <v>196.8625555144901</v>
       </c>
       <c r="F40" t="n">
-        <v>217.0174985469644</v>
+        <v>196.8625555144901</v>
       </c>
       <c r="G40" t="n">
-        <v>207.4609049796586</v>
+        <v>196.8625555144901</v>
       </c>
       <c r="H40" t="n">
         <v>48.81975253256328</v>
@@ -7359,25 +7359,25 @@
         <v>640.6381696807582</v>
       </c>
       <c r="S40" t="n">
-        <v>640.6381696807582</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="T40" t="n">
-        <v>640.6381696807582</v>
+        <v>196.8625555144901</v>
       </c>
       <c r="U40" t="n">
-        <v>640.6381696807582</v>
+        <v>196.8625555144901</v>
       </c>
       <c r="V40" t="n">
-        <v>385.9536814748714</v>
+        <v>196.8625555144901</v>
       </c>
       <c r="W40" t="n">
-        <v>385.9536814748714</v>
+        <v>196.8625555144901</v>
       </c>
       <c r="X40" t="n">
-        <v>385.9536814748714</v>
+        <v>196.8625555144901</v>
       </c>
       <c r="Y40" t="n">
-        <v>385.9536814748714</v>
+        <v>196.8625555144901</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>342.4175391002827</v>
+        <v>1375.209346660811</v>
       </c>
       <c r="C41" t="n">
-        <v>342.4175391002827</v>
+        <v>1006.2468297204</v>
       </c>
       <c r="D41" t="n">
-        <v>342.4175391002827</v>
+        <v>1006.2468297204</v>
       </c>
       <c r="E41" t="n">
-        <v>342.4175391002827</v>
+        <v>620.4585771221555</v>
       </c>
       <c r="F41" t="n">
-        <v>342.4175391002827</v>
+        <v>209.4726723325479</v>
       </c>
       <c r="G41" t="n">
-        <v>342.4175391002827</v>
+        <v>209.4726723325479</v>
       </c>
       <c r="H41" t="n">
         <v>48.81975253256328</v>
@@ -7435,28 +7435,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R41" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894855</v>
       </c>
       <c r="S41" t="n">
-        <v>2259.7089786956</v>
+        <v>2371.897027894855</v>
       </c>
       <c r="T41" t="n">
-        <v>2040.094374027287</v>
+        <v>2371.897027894855</v>
       </c>
       <c r="U41" t="n">
-        <v>1786.314680039169</v>
+        <v>2118.117333906737</v>
       </c>
       <c r="V41" t="n">
-        <v>1455.251792695598</v>
+        <v>2118.117333906737</v>
       </c>
       <c r="W41" t="n">
-        <v>1102.483137425484</v>
+        <v>1765.348678636623</v>
       </c>
       <c r="X41" t="n">
-        <v>729.0173791644045</v>
+        <v>1765.348678636623</v>
       </c>
       <c r="Y41" t="n">
-        <v>729.0173791644045</v>
+        <v>1375.209346660811</v>
       </c>
     </row>
     <row r="42">
@@ -7466,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>779.834467487422</v>
+        <v>988.7751048338188</v>
       </c>
       <c r="C42" t="n">
-        <v>605.381438206295</v>
+        <v>814.3220755526918</v>
       </c>
       <c r="D42" t="n">
-        <v>456.4470285450437</v>
+        <v>665.3876658914405</v>
       </c>
       <c r="E42" t="n">
-        <v>297.2095735395882</v>
+        <v>506.150210885985</v>
       </c>
       <c r="F42" t="n">
-        <v>150.6750155664732</v>
+        <v>359.6156529128699</v>
       </c>
       <c r="G42" t="n">
-        <v>48.81975253256328</v>
+        <v>221.5857653620315</v>
       </c>
       <c r="H42" t="n">
-        <v>48.81975253256328</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="I42" t="n">
         <v>48.81975253256328</v>
@@ -7514,28 +7514,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R42" t="n">
-        <v>2440.987626628164</v>
+        <v>2383.337730684676</v>
       </c>
       <c r="S42" t="n">
-        <v>2280.589895521038</v>
+        <v>2222.939999577549</v>
       </c>
       <c r="T42" t="n">
-        <v>2081.228572368207</v>
+        <v>2023.578676424718</v>
       </c>
       <c r="U42" t="n">
-        <v>1853.051068437921</v>
+        <v>1854.231407019364</v>
       </c>
       <c r="V42" t="n">
-        <v>1617.898960206178</v>
+        <v>1619.079298787621</v>
       </c>
       <c r="W42" t="n">
-        <v>1363.661603477977</v>
+        <v>1364.84194205942</v>
       </c>
       <c r="X42" t="n">
-        <v>1155.810103272444</v>
+        <v>1156.990441853887</v>
       </c>
       <c r="Y42" t="n">
-        <v>948.0498045074901</v>
+        <v>1156.990441853887</v>
       </c>
     </row>
     <row r="43">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.1684137834047</v>
+        <v>458.9897048505186</v>
       </c>
       <c r="C43" t="n">
-        <v>188.1684137834047</v>
+        <v>346.8494855272921</v>
       </c>
       <c r="D43" t="n">
-        <v>188.1684137834047</v>
+        <v>196.7328461149564</v>
       </c>
       <c r="E43" t="n">
-        <v>188.1684137834047</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="F43" t="n">
-        <v>188.1684137834047</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="G43" t="n">
-        <v>188.1684137834047</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="H43" t="n">
-        <v>188.1684137834047</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="I43" t="n">
         <v>48.81975253256328</v>
@@ -7596,25 +7596,25 @@
         <v>640.6381696807583</v>
       </c>
       <c r="S43" t="n">
-        <v>424.5997883913117</v>
+        <v>640.6381696807583</v>
       </c>
       <c r="T43" t="n">
-        <v>196.8625555144902</v>
+        <v>640.6381696807583</v>
       </c>
       <c r="U43" t="n">
-        <v>196.8625555144902</v>
+        <v>640.6381696807583</v>
       </c>
       <c r="V43" t="n">
-        <v>188.1684137834047</v>
+        <v>640.6381696807583</v>
       </c>
       <c r="W43" t="n">
-        <v>188.1684137834047</v>
+        <v>640.6381696807583</v>
       </c>
       <c r="X43" t="n">
-        <v>188.1684137834047</v>
+        <v>640.6381696807583</v>
       </c>
       <c r="Y43" t="n">
-        <v>188.1684137834047</v>
+        <v>640.6381696807583</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>868.9234423237272</v>
+        <v>1369.576882096602</v>
       </c>
       <c r="C44" t="n">
-        <v>868.9234423237272</v>
+        <v>1369.576882096602</v>
       </c>
       <c r="D44" t="n">
-        <v>845.5939099204151</v>
+        <v>1369.576882096602</v>
       </c>
       <c r="E44" t="n">
-        <v>459.8056573221708</v>
+        <v>1369.576882096602</v>
       </c>
       <c r="F44" t="n">
-        <v>48.81975253256328</v>
+        <v>958.5909773069948</v>
       </c>
       <c r="G44" t="n">
-        <v>48.81975253256328</v>
+        <v>540.4033113775685</v>
       </c>
       <c r="H44" t="n">
-        <v>48.81975253256328</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="I44" t="n">
         <v>48.81975253256328</v>
@@ -7663,7 +7663,7 @@
         <v>1672.394424063531</v>
       </c>
       <c r="O44" t="n">
-        <v>2037.925350935286</v>
+        <v>2037.925350935285</v>
       </c>
       <c r="P44" t="n">
         <v>2312.223157255915</v>
@@ -7672,28 +7672,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R44" t="n">
-        <v>2371.897027894855</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S44" t="n">
-        <v>2371.897027894855</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T44" t="n">
-        <v>2371.897027894855</v>
+        <v>2307.188118698404</v>
       </c>
       <c r="U44" t="n">
-        <v>2371.897027894855</v>
+        <v>2053.408424710287</v>
       </c>
       <c r="V44" t="n">
-        <v>2371.897027894855</v>
+        <v>1722.345537366716</v>
       </c>
       <c r="W44" t="n">
-        <v>2019.12837262474</v>
+        <v>1369.576882096602</v>
       </c>
       <c r="X44" t="n">
-        <v>1645.662614363661</v>
+        <v>1369.576882096602</v>
       </c>
       <c r="Y44" t="n">
-        <v>1255.523282387849</v>
+        <v>1369.576882096602</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>921.5458946967647</v>
+        <v>979.1957906402531</v>
       </c>
       <c r="C45" t="n">
-        <v>814.3220755526918</v>
+        <v>804.7427613591261</v>
       </c>
       <c r="D45" t="n">
-        <v>665.3876658914405</v>
+        <v>655.8083516978749</v>
       </c>
       <c r="E45" t="n">
-        <v>506.150210885985</v>
+        <v>496.5708966924194</v>
       </c>
       <c r="F45" t="n">
-        <v>359.6156529128699</v>
+        <v>350.0363387193044</v>
       </c>
       <c r="G45" t="n">
-        <v>221.5857653620315</v>
+        <v>212.006451168466</v>
       </c>
       <c r="H45" t="n">
         <v>114.9862139017798</v>
@@ -7751,28 +7751,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R45" t="n">
-        <v>2383.337730684676</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S45" t="n">
-        <v>2222.939999577549</v>
+        <v>2280.589895521038</v>
       </c>
       <c r="T45" t="n">
-        <v>2222.939999577549</v>
+        <v>2280.589895521038</v>
       </c>
       <c r="U45" t="n">
-        <v>1994.762495647264</v>
+        <v>2052.412391590752</v>
       </c>
       <c r="V45" t="n">
-        <v>1759.610387415521</v>
+        <v>1817.260283359009</v>
       </c>
       <c r="W45" t="n">
-        <v>1505.373030687319</v>
+        <v>1563.022926630808</v>
       </c>
       <c r="X45" t="n">
-        <v>1297.521530481787</v>
+        <v>1355.171426425275</v>
       </c>
       <c r="Y45" t="n">
-        <v>1089.761231716833</v>
+        <v>1147.411127660321</v>
       </c>
     </row>
     <row r="46">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>195.7097000304736</v>
+        <v>640.6381696807583</v>
       </c>
       <c r="C46" t="n">
-        <v>195.7097000304736</v>
+        <v>640.6381696807583</v>
       </c>
       <c r="D46" t="n">
-        <v>195.7097000304736</v>
+        <v>640.6381696807583</v>
       </c>
       <c r="E46" t="n">
-        <v>195.7097000304736</v>
+        <v>640.6381696807583</v>
       </c>
       <c r="F46" t="n">
-        <v>48.81975253256328</v>
+        <v>493.7482221828479</v>
       </c>
       <c r="G46" t="n">
-        <v>48.81975253256328</v>
+        <v>346.8095662305</v>
       </c>
       <c r="H46" t="n">
-        <v>48.81975253256328</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="I46" t="n">
         <v>48.81975253256328</v>
@@ -7848,10 +7848,10 @@
         <v>640.6381696807583</v>
       </c>
       <c r="X46" t="n">
-        <v>598.1507440042435</v>
+        <v>640.6381696807583</v>
       </c>
       <c r="Y46" t="n">
-        <v>377.3581648607134</v>
+        <v>640.6381696807583</v>
       </c>
     </row>
   </sheetData>
@@ -7981,7 +7981,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -8060,22 +8060,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7352039419416</v>
       </c>
       <c r="M3" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>369.8307175917693</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>242.4075215744184</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8540,19 +8540,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N9" t="n">
-        <v>371.3463732493024</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>94.72888660085701</v>
+        <v>94.72888660085704</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>51.40241131725693</v>
+        <v>51.40241131725695</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>94.72888660085746</v>
+        <v>61.27660229194302</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>51.40241131725693</v>
+        <v>84.85469562617106</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>94.72888660085746</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9260,10 +9260,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>128.4257434817928</v>
       </c>
       <c r="Q18" t="n">
-        <v>51.40241131725693</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9482,7 +9482,7 @@
         <v>61.27660229194301</v>
       </c>
       <c r="K21" t="n">
-        <v>139.2426449029002</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>84.85469562617151</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>61.27660229194301</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9728,7 +9728,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>289.3053491854096</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>84.85469562617151</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>61.27660229194301</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9971,10 +9971,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>287.1006199003851</v>
       </c>
       <c r="Q27" t="n">
-        <v>84.85469562617104</v>
+        <v>51.40241131725693</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10190,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>61.27660229194301</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>139.2426449029002</v>
+        <v>233.1030882730273</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>51.40241131725693</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10427,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>61.27660229194301</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>139.2426449029002</v>
+        <v>233.1030882730273</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>51.40241131725693</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>61.27660229194301</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10676,7 +10676,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>289.3053491854096</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>84.85469562617151</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10913,16 +10913,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>289.3053491854096</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>287.1006199003856</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>51.40241131725693</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11308,7 +11308,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119838</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11317,7 +11317,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599043</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23269,13 +23269,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>138.3013329430003</v>
+        <v>327.7235789176922</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I11" t="n">
         <v>160.4752923549255</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23317,16 +23317,16 @@
         <v>251.2418970482362</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23336,7 +23336,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -23354,7 +23354,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>97.39144430711933</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -23405,7 +23405,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>158.3910720113377</v>
       </c>
     </row>
     <row r="13">
@@ -23427,19 +23427,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.4092130247883</v>
+        <v>120.1696217084943</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I13" t="n">
-        <v>106.6683739310036</v>
+        <v>137.955174638333</v>
       </c>
       <c r="J13" t="n">
-        <v>52.22830032617342</v>
+        <v>52.22830032617343</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,7 +23460,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>37.44704598407324</v>
+        <v>37.44704598407325</v>
       </c>
       <c r="R13" t="n">
         <v>151.1350615014064</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>263.9281857565212</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23509,13 +23509,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>326.1924309016296</v>
       </c>
       <c r="I14" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,22 +23545,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>294.6642957240128</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23588,13 +23588,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H15" t="n">
         <v>105.5335559456492</v>
       </c>
       <c r="I15" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,10 +23621,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>21.7414833360074</v>
       </c>
       <c r="S15" t="n">
-        <v>92.88627525581246</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -23655,7 +23655,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23664,19 +23664,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>13.29063448143714</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>167.4092130247883</v>
       </c>
       <c r="H16" t="n">
-        <v>157.0547409226243</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>137.955174638333</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>52.22830032617342</v>
+        <v>52.22830032617343</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>37.44704598407324</v>
+        <v>37.44704598407325</v>
       </c>
       <c r="R16" t="n">
         <v>151.1350615014064</v>
@@ -23712,10 +23712,10 @@
         <v>286.2872966473816</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>106.6683739310036</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23734,10 +23734,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23746,10 +23746,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>54.21449921051686</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I17" t="n">
         <v>160.4752923549255</v>
@@ -23782,7 +23782,7 @@
         <v>68.39969274597628</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T17" t="n">
         <v>217.4184586216305</v>
@@ -23794,13 +23794,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>187.2404817170367</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23822,13 +23822,13 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>61.78201857954932</v>
       </c>
       <c r="H18" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23867,7 +23867,7 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>101.3176750272835</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -23901,7 +23901,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>167.4092130247883</v>
@@ -23946,19 +23946,19 @@
         <v>225.4598605480533</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>239.0477053310876</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>30.24311172214107</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>414.005789270132</v>
       </c>
       <c r="H20" t="n">
-        <v>153.0011645091087</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>68.39969274597628</v>
       </c>
       <c r="S20" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>321.4203133032079</v>
       </c>
     </row>
     <row r="21">
@@ -24065,7 +24065,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>65.50479675552441</v>
@@ -24098,13 +24098,13 @@
         <v>57.07339698405353</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>141.3464342174078</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>35.81287827175942</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24141,10 +24141,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>157.0547409226243</v>
+        <v>56.94560357073387</v>
       </c>
       <c r="I22" t="n">
         <v>137.955174638333</v>
@@ -24174,7 +24174,7 @@
         <v>37.44704598407324</v>
       </c>
       <c r="R22" t="n">
-        <v>151.1350615014064</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>213.8779974765521</v>
@@ -24186,16 +24186,16 @@
         <v>286.2872966473816</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>171.3450620358008</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24205,22 +24205,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>131.6174540733984</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>414.005789270132</v>
+        <v>109.3738945612913</v>
       </c>
       <c r="H23" t="n">
         <v>326.1924309016296</v>
@@ -24253,13 +24253,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>68.39969274597628</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24268,10 +24268,10 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24299,13 +24299,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>58.1516427535088</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24332,10 +24332,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>57.07339698405353</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>4.696845542077853</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -24350,7 +24350,7 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24375,13 +24375,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>97.70037454402261</v>
       </c>
       <c r="G25" t="n">
         <v>167.4092130247883</v>
       </c>
       <c r="H25" t="n">
-        <v>157.0547409226243</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>137.955174638333</v>
@@ -24414,7 +24414,7 @@
         <v>151.1350615014064</v>
       </c>
       <c r="S25" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>225.4598605480533</v>
@@ -24423,7 +24423,7 @@
         <v>286.2872966473816</v>
       </c>
       <c r="V25" t="n">
-        <v>13.31621162768016</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24451,13 +24451,13 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>279.2190348490226</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H26" t="n">
         <v>326.1924309016296</v>
@@ -24490,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>9.963046114400115</v>
+        <v>68.39969274597628</v>
       </c>
       <c r="S26" t="n">
         <v>179.4658614532381</v>
@@ -24508,7 +24508,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24536,7 +24536,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>92.88627525581317</v>
       </c>
       <c r="H27" t="n">
         <v>105.5335559456492</v>
@@ -24569,10 +24569,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>57.07339698405353</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>35.81287827175935</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -24606,19 +24606,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>167.4092130247883</v>
       </c>
       <c r="H28" t="n">
-        <v>157.0547409226243</v>
+        <v>49.07203761769745</v>
       </c>
       <c r="I28" t="n">
         <v>137.955174638333</v>
@@ -24645,22 +24645,22 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>37.44704598407324</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>151.1350615014064</v>
       </c>
       <c r="S28" t="n">
-        <v>105.5752683717204</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U28" t="n">
         <v>286.2872966473816</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24682,25 +24682,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>369.6119710255888</v>
       </c>
       <c r="G29" t="n">
-        <v>148.4700486421296</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H29" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24733,7 +24733,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24742,7 +24742,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24773,10 +24773,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H30" t="n">
-        <v>105.5335559456492</v>
+        <v>61.7702425261319</v>
       </c>
       <c r="I30" t="n">
         <v>65.50479675552441</v>
@@ -24809,7 +24809,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>92.8862752558129</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -24849,10 +24849,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>157.0547409226243</v>
@@ -24888,16 +24888,16 @@
         <v>151.1350615014064</v>
       </c>
       <c r="S31" t="n">
-        <v>213.8779974765521</v>
+        <v>20.84683807268078</v>
       </c>
       <c r="T31" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2872966473816</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24906,7 +24906,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>30.24311172214107</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24916,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>60.61219934353841</v>
       </c>
       <c r="I32" t="n">
         <v>160.4752923549255</v>
@@ -24967,7 +24967,7 @@
         <v>68.39969274597628</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -24976,16 +24976,16 @@
         <v>251.2418970482362</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>268.9794640011943</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25010,10 +25010,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>136.64958867533</v>
+        <v>92.88627525581273</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I33" t="n">
         <v>65.50479675552441</v>
@@ -25049,7 +25049,7 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>61.77024252613191</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -25074,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>124.5936034902385</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>21.81707180962766</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>167.4092130247883</v>
@@ -25095,7 +25095,7 @@
         <v>157.0547409226243</v>
       </c>
       <c r="I34" t="n">
-        <v>137.955174638333</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>52.22830032617342</v>
@@ -25128,7 +25128,7 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T34" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2872966473816</v>
@@ -25153,22 +25153,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H35" t="n">
         <v>326.1924309016296</v>
@@ -25210,19 +25210,19 @@
         <v>217.4184586216305</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>184.2744490884359</v>
+        <v>327.1285956339429</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25247,13 +25247,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>92.88627525581273</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25280,16 +25280,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>57.07339698405353</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>158.7937537960548</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>48.05747717687765</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -25317,13 +25317,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>71.75346877184644</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>167.4092130247883</v>
@@ -25362,22 +25362,22 @@
         <v>151.1350615014064</v>
       </c>
       <c r="S37" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>225.4598605480533</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2872966473816</v>
+        <v>62.88053416543318</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25390,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -25405,7 +25405,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>132.4381255885346</v>
       </c>
       <c r="H38" t="n">
         <v>326.1924309016296</v>
@@ -25438,19 +25438,19 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>68.39969274597628</v>
       </c>
       <c r="S38" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>107.908437109989</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25459,7 +25459,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25484,7 +25484,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>31.12404080756104</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -25517,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>57.07339698405353</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -25529,10 +25529,10 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>206.8512309729327</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25563,10 +25563,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>157.9481853931555</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>10.4923659705168</v>
       </c>
       <c r="I40" t="n">
         <v>137.955174638333</v>
@@ -25599,16 +25599,16 @@
         <v>151.1350615014064</v>
       </c>
       <c r="S40" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2872966473816</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25627,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>414.005789270132</v>
       </c>
       <c r="H41" t="n">
-        <v>35.53062219958736</v>
+        <v>167.1460402996448</v>
       </c>
       <c r="I41" t="n">
         <v>160.4752923549255</v>
@@ -25675,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>68.39969274597627</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25721,13 +25721,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>35.81287827175917</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25754,7 +25754,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>57.07339698405352</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -25763,7 +25763,7 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>58.24193217968184</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -25775,7 +25775,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25785,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>56.22800396863364</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25806,7 +25806,7 @@
         <v>157.0547409226243</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>137.955174638333</v>
       </c>
       <c r="J43" t="n">
         <v>52.22830032617341</v>
@@ -25836,16 +25836,16 @@
         <v>151.1350615014064</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U43" t="n">
         <v>286.2872966473816</v>
       </c>
       <c r="V43" t="n">
-        <v>243.5304430100534</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>331.586804541404</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,28 +25912,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>68.39969274597627</v>
       </c>
       <c r="S44" t="n">
         <v>179.4658614532381</v>
       </c>
       <c r="T44" t="n">
-        <v>217.4184586216305</v>
+        <v>84.95694577116828</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25946,7 +25946,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>66.55691803568359</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -25961,7 +25961,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>9.483521051629921</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -25991,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>57.07339698405352</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>167.4092130247883</v>
+        <v>21.93994363196384</v>
       </c>
       <c r="H46" t="n">
-        <v>157.0547409226243</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>137.955174638333</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>52.22830032617341</v>
@@ -26088,10 +26088,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>183.6471039692875</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>573408.0511037448</v>
+        <v>573408.0511037449</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>573408.0511037449</v>
+        <v>573408.0511037448</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>573408.051103745</v>
+        <v>573408.0511037449</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>573408.0511037449</v>
+        <v>573408.0511037448</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>573408.0511037449</v>
+        <v>573408.051103745</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>573408.051103745</v>
+        <v>573408.0511037449</v>
       </c>
     </row>
     <row r="14">
@@ -26316,19 +26316,19 @@
         <v>595255.2831516052</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516052</v>
+        <v>595255.2831516051</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516053</v>
+        <v>595255.2831516051</v>
       </c>
       <c r="E2" t="n">
-        <v>393156.4705133701</v>
+        <v>393156.4705133699</v>
       </c>
       <c r="F2" t="n">
         <v>393156.47051337</v>
       </c>
       <c r="G2" t="n">
-        <v>393156.4705133701</v>
+        <v>393156.47051337</v>
       </c>
       <c r="H2" t="n">
         <v>393156.4705133701</v>
@@ -26337,25 +26337,25 @@
         <v>393156.4705133701</v>
       </c>
       <c r="J2" t="n">
-        <v>393156.4705133701</v>
+        <v>393156.47051337</v>
       </c>
       <c r="K2" t="n">
-        <v>393156.4705133701</v>
+        <v>393156.4705133702</v>
       </c>
       <c r="L2" t="n">
         <v>393156.4705133701</v>
       </c>
       <c r="M2" t="n">
-        <v>393156.47051337</v>
+        <v>393156.4705133701</v>
       </c>
       <c r="N2" t="n">
         <v>393156.47051337</v>
       </c>
       <c r="O2" t="n">
-        <v>393156.4705133699</v>
+        <v>393156.47051337</v>
       </c>
       <c r="P2" t="n">
-        <v>393156.4705133699</v>
+        <v>393156.4705133701</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>369435.2991327802</v>
+        <v>369435.2991327801</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>92014.2452810931</v>
+        <v>92014.24528109307</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>295860.2172754402</v>
+        <v>295860.2172754403</v>
       </c>
       <c r="C4" t="n">
         <v>295860.2172754402</v>
@@ -26444,7 +26444,7 @@
         <v>18029.85379262113</v>
       </c>
       <c r="K4" t="n">
-        <v>18029.85379262112</v>
+        <v>18029.85379262113</v>
       </c>
       <c r="L4" t="n">
         <v>18029.85379262113</v>
@@ -26481,13 +26481,13 @@
         <v>44136.03802033842</v>
       </c>
       <c r="F5" t="n">
+        <v>44136.03802033842</v>
+      </c>
+      <c r="G5" t="n">
+        <v>44136.03802033842</v>
+      </c>
+      <c r="H5" t="n">
         <v>44136.03802033843</v>
-      </c>
-      <c r="G5" t="n">
-        <v>44136.03802033843</v>
-      </c>
-      <c r="H5" t="n">
-        <v>44136.03802033842</v>
       </c>
       <c r="I5" t="n">
         <v>44136.03802033843</v>
@@ -26496,10 +26496,10 @@
         <v>44136.03802033842</v>
       </c>
       <c r="K5" t="n">
-        <v>44136.03802033842</v>
+        <v>44136.03802033843</v>
       </c>
       <c r="L5" t="n">
-        <v>44136.03802033842</v>
+        <v>44136.03802033843</v>
       </c>
       <c r="M5" t="n">
         <v>44136.03802033843</v>
@@ -26524,46 +26524,46 @@
         <v>170344.3655808555</v>
       </c>
       <c r="C6" t="n">
-        <v>251113.7971124033</v>
+        <v>251113.7971124031</v>
       </c>
       <c r="D6" t="n">
-        <v>251113.7971124034</v>
+        <v>251113.7971124031</v>
       </c>
       <c r="E6" t="n">
-        <v>-45413.64500610186</v>
+        <v>-39141.61288974294</v>
       </c>
       <c r="F6" t="n">
-        <v>324021.6541266782</v>
+        <v>330293.6862430373</v>
       </c>
       <c r="G6" t="n">
-        <v>324021.6541266784</v>
+        <v>330293.6862430373</v>
       </c>
       <c r="H6" t="n">
-        <v>324021.6541266784</v>
+        <v>330293.6862430373</v>
       </c>
       <c r="I6" t="n">
-        <v>324021.6541266783</v>
+        <v>330293.6862430373</v>
       </c>
       <c r="J6" t="n">
-        <v>260961.7115275722</v>
+        <v>267233.7436439311</v>
       </c>
       <c r="K6" t="n">
-        <v>324021.6541266783</v>
+        <v>330293.6862430375</v>
       </c>
       <c r="L6" t="n">
-        <v>324021.6541266783</v>
+        <v>330293.6862430373</v>
       </c>
       <c r="M6" t="n">
-        <v>232007.4088455851</v>
+        <v>238279.4409619442</v>
       </c>
       <c r="N6" t="n">
-        <v>324021.6541266782</v>
+        <v>330293.6862430372</v>
       </c>
       <c r="O6" t="n">
-        <v>324021.6541266782</v>
+        <v>330293.6862430372</v>
       </c>
       <c r="P6" t="n">
-        <v>324021.6541266782</v>
+        <v>330293.6862430373</v>
       </c>
     </row>
   </sheetData>
@@ -26746,10 +26746,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>322.6158759445109</v>
+        <v>322.6158759445108</v>
       </c>
       <c r="F3" t="n">
-        <v>322.6158759445109</v>
+        <v>322.6158759445108</v>
       </c>
       <c r="G3" t="n">
         <v>322.6158759445109</v>
@@ -26801,13 +26801,13 @@
         <v>610.2469066570409</v>
       </c>
       <c r="F4" t="n">
+        <v>610.2469066570409</v>
+      </c>
+      <c r="G4" t="n">
+        <v>610.2469066570409</v>
+      </c>
+      <c r="H4" t="n">
         <v>610.246906657041</v>
-      </c>
-      <c r="G4" t="n">
-        <v>610.246906657041</v>
-      </c>
-      <c r="H4" t="n">
-        <v>610.2469066570409</v>
       </c>
       <c r="I4" t="n">
         <v>610.246906657041</v>
@@ -26816,10 +26816,10 @@
         <v>610.2469066570409</v>
       </c>
       <c r="K4" t="n">
-        <v>610.2469066570409</v>
+        <v>610.246906657041</v>
       </c>
       <c r="L4" t="n">
-        <v>610.2469066570409</v>
+        <v>610.246906657041</v>
       </c>
       <c r="M4" t="n">
         <v>610.246906657041</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>322.6158759445109</v>
+        <v>322.6158759445108</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>369.2326177793819</v>
+        <v>369.2326177793818</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>369.2326177793819</v>
+        <v>369.2326177793818</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>369.2326177793819</v>
+        <v>369.2326177793818</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27390,10 +27390,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
+        <v>319.1698855250446</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
-      </c>
-      <c r="G2" t="n">
-        <v>319.1698855250446</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -27460,13 +27460,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27517,16 +27517,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>11.52642163877024</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>4.829496336780863</v>
       </c>
     </row>
     <row r="4">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27563,7 +27563,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>175.6055225771058</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27621,13 +27621,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E5" t="n">
-        <v>333.09447488872</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>351.1641048164582</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27672,16 +27672,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27700,19 +27700,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>153.8111226869423</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
@@ -27742,28 +27742,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>176.6123398437512</v>
       </c>
     </row>
     <row r="7">
@@ -27776,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>36.78129424836629</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27797,10 +27797,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>210.8728004813312</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27861,22 +27861,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>283.1818162837787</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>145.5521075266815</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -27931,7 +27931,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -27943,16 +27943,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>21.46887964564732</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27982,25 +27982,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>22.28762293999844</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28019,13 +28019,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>15.96843579630763</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>153.1541244507528</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
         <v>162.2271725074396</v>
@@ -28034,10 +28034,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -31758,7 +31758,7 @@
         <v>13.28237121413757</v>
       </c>
       <c r="I11" t="n">
-        <v>50.00059721548044</v>
+        <v>50.00059721548043</v>
       </c>
       <c r="J11" t="n">
         <v>110.0768611093284</v>
@@ -31770,7 +31770,7 @@
         <v>204.6681601733202</v>
       </c>
       <c r="M11" t="n">
-        <v>227.7327635253934</v>
+        <v>227.7327635253933</v>
       </c>
       <c r="N11" t="n">
         <v>231.4177177265083</v>
@@ -31782,16 +31782,16 @@
         <v>186.5027788167461</v>
       </c>
       <c r="Q11" t="n">
-        <v>140.0558197925741</v>
+        <v>140.055819792574</v>
       </c>
       <c r="R11" t="n">
-        <v>81.4694251951734</v>
+        <v>81.46942519517339</v>
       </c>
       <c r="S11" t="n">
-        <v>29.55420813300721</v>
+        <v>29.5542081330072</v>
       </c>
       <c r="T11" t="n">
-        <v>5.677390942500889</v>
+        <v>5.677390942500888</v>
       </c>
       <c r="U11" t="n">
         <v>0.1037558596002446</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6939284878806461</v>
+        <v>0.693928487880646</v>
       </c>
       <c r="H12" t="n">
-        <v>6.701888290847293</v>
+        <v>6.701888290847292</v>
       </c>
       <c r="I12" t="n">
-        <v>23.89183609589067</v>
+        <v>23.89183609589066</v>
       </c>
       <c r="J12" t="n">
-        <v>65.56102437472369</v>
+        <v>65.56102437472367</v>
       </c>
       <c r="K12" t="n">
         <v>112.054233062727</v>
@@ -31855,22 +31855,22 @@
         <v>180.479234222958</v>
       </c>
       <c r="O12" t="n">
-        <v>165.1032398336027</v>
+        <v>165.1032398336026</v>
       </c>
       <c r="P12" t="n">
-        <v>132.5099057252087</v>
+        <v>132.5099057252086</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.57936276876458</v>
+        <v>88.57936276876457</v>
       </c>
       <c r="R12" t="n">
         <v>43.0844371685896</v>
       </c>
       <c r="S12" t="n">
-        <v>12.88941730778305</v>
+        <v>12.88941730778304</v>
       </c>
       <c r="T12" t="n">
-        <v>2.797018773518919</v>
+        <v>2.797018773518918</v>
       </c>
       <c r="U12" t="n">
         <v>0.04565318999214778</v>
@@ -31910,34 +31910,34 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5817663336704294</v>
+        <v>0.5817663336704293</v>
       </c>
       <c r="H13" t="n">
-        <v>5.172431584815276</v>
+        <v>5.172431584815275</v>
       </c>
       <c r="I13" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J13" t="n">
-        <v>41.13087979049936</v>
+        <v>41.13087979049935</v>
       </c>
       <c r="K13" t="n">
-        <v>67.59067040280078</v>
+        <v>67.59067040280077</v>
       </c>
       <c r="L13" t="n">
-        <v>86.49278746223823</v>
+        <v>86.4927874622382</v>
       </c>
       <c r="M13" t="n">
-        <v>91.19451719526558</v>
+        <v>91.19451719526556</v>
       </c>
       <c r="N13" t="n">
-        <v>89.02611540613042</v>
+        <v>89.02611540613039</v>
       </c>
       <c r="O13" t="n">
-        <v>82.23002687188945</v>
+        <v>82.23002687188944</v>
       </c>
       <c r="P13" t="n">
-        <v>70.36199366501263</v>
+        <v>70.36199366501262</v>
       </c>
       <c r="Q13" t="n">
         <v>48.71499726762114</v>
@@ -31946,13 +31946,13 @@
         <v>26.15832987576312</v>
       </c>
       <c r="S13" t="n">
-        <v>10.13860056042012</v>
+        <v>10.13860056042011</v>
       </c>
       <c r="T13" t="n">
-        <v>2.485728880228198</v>
+        <v>2.485728880228197</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03173270910929619</v>
+        <v>0.03173270910929618</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31995,7 +31995,7 @@
         <v>13.28237121413757</v>
       </c>
       <c r="I14" t="n">
-        <v>50.00059721548044</v>
+        <v>50.00059721548043</v>
       </c>
       <c r="J14" t="n">
         <v>110.0768611093284</v>
@@ -32007,7 +32007,7 @@
         <v>204.6681601733202</v>
       </c>
       <c r="M14" t="n">
-        <v>227.7327635253934</v>
+        <v>227.7327635253933</v>
       </c>
       <c r="N14" t="n">
         <v>231.4177177265083</v>
@@ -32019,16 +32019,16 @@
         <v>186.5027788167461</v>
       </c>
       <c r="Q14" t="n">
-        <v>140.0558197925741</v>
+        <v>140.055819792574</v>
       </c>
       <c r="R14" t="n">
-        <v>81.4694251951734</v>
+        <v>81.46942519517339</v>
       </c>
       <c r="S14" t="n">
-        <v>29.55420813300721</v>
+        <v>29.5542081330072</v>
       </c>
       <c r="T14" t="n">
-        <v>5.677390942500889</v>
+        <v>5.677390942500888</v>
       </c>
       <c r="U14" t="n">
         <v>0.1037558596002446</v>
@@ -32068,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6939284878806461</v>
+        <v>0.693928487880646</v>
       </c>
       <c r="H15" t="n">
-        <v>6.701888290847293</v>
+        <v>6.701888290847292</v>
       </c>
       <c r="I15" t="n">
-        <v>23.89183609589067</v>
+        <v>23.89183609589066</v>
       </c>
       <c r="J15" t="n">
-        <v>65.56102437472369</v>
+        <v>65.56102437472367</v>
       </c>
       <c r="K15" t="n">
         <v>112.054233062727</v>
@@ -32092,22 +32092,22 @@
         <v>180.479234222958</v>
       </c>
       <c r="O15" t="n">
-        <v>165.1032398336027</v>
+        <v>165.1032398336026</v>
       </c>
       <c r="P15" t="n">
-        <v>132.5099057252087</v>
+        <v>132.5099057252086</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.57936276876458</v>
+        <v>88.57936276876457</v>
       </c>
       <c r="R15" t="n">
         <v>43.0844371685896</v>
       </c>
       <c r="S15" t="n">
-        <v>12.88941730778305</v>
+        <v>12.88941730778304</v>
       </c>
       <c r="T15" t="n">
-        <v>2.797018773518919</v>
+        <v>2.797018773518918</v>
       </c>
       <c r="U15" t="n">
         <v>0.04565318999214778</v>
@@ -32147,34 +32147,34 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5817663336704294</v>
+        <v>0.5817663336704293</v>
       </c>
       <c r="H16" t="n">
-        <v>5.172431584815276</v>
+        <v>5.172431584815275</v>
       </c>
       <c r="I16" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J16" t="n">
-        <v>41.13087979049936</v>
+        <v>41.13087979049935</v>
       </c>
       <c r="K16" t="n">
-        <v>67.59067040280078</v>
+        <v>67.59067040280077</v>
       </c>
       <c r="L16" t="n">
-        <v>86.49278746223823</v>
+        <v>86.4927874622382</v>
       </c>
       <c r="M16" t="n">
-        <v>91.19451719526558</v>
+        <v>91.19451719526556</v>
       </c>
       <c r="N16" t="n">
-        <v>89.02611540613042</v>
+        <v>89.02611540613039</v>
       </c>
       <c r="O16" t="n">
-        <v>82.23002687188945</v>
+        <v>82.23002687188944</v>
       </c>
       <c r="P16" t="n">
-        <v>70.36199366501263</v>
+        <v>70.36199366501262</v>
       </c>
       <c r="Q16" t="n">
         <v>48.71499726762114</v>
@@ -32183,13 +32183,13 @@
         <v>26.15832987576312</v>
       </c>
       <c r="S16" t="n">
-        <v>10.13860056042012</v>
+        <v>10.13860056042011</v>
       </c>
       <c r="T16" t="n">
-        <v>2.485728880228198</v>
+        <v>2.485728880228197</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03173270910929619</v>
+        <v>0.03173270910929618</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -34780,22 +34780,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="M3" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>70.09551364982758</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>231.276337811895</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35260,19 +35260,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N9" t="n">
-        <v>240.0046611659691</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,10 +35409,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>98.12757175471586</v>
+        <v>98.12757175471585</v>
       </c>
       <c r="K11" t="n">
-        <v>269.0322418464921</v>
+        <v>269.032241846492</v>
       </c>
       <c r="L11" t="n">
         <v>386.5629597537834</v>
@@ -35424,13 +35424,13 @@
         <v>439.3515785419015</v>
       </c>
       <c r="O11" t="n">
-        <v>369.2231584563178</v>
+        <v>369.2231584563177</v>
       </c>
       <c r="P11" t="n">
         <v>277.0684912329592</v>
       </c>
       <c r="Q11" t="n">
-        <v>130.0651205780293</v>
+        <v>130.0651205780292</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35506,7 +35506,7 @@
         <v>416.3693146658877</v>
       </c>
       <c r="P12" t="n">
-        <v>316.9982669508156</v>
+        <v>316.9982669508155</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35570,10 +35570,10 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>45.32117857691793</v>
+        <v>45.32117857691792</v>
       </c>
       <c r="L13" t="n">
-        <v>114.0828127225544</v>
+        <v>114.0828127225543</v>
       </c>
       <c r="M13" t="n">
         <v>130.7783941571062</v>
@@ -35585,7 +35585,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P13" t="n">
-        <v>67.64055292990612</v>
+        <v>67.64055292990611</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,10 +35646,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>98.12757175471586</v>
+        <v>98.12757175471585</v>
       </c>
       <c r="K14" t="n">
-        <v>269.0322418464921</v>
+        <v>269.032241846492</v>
       </c>
       <c r="L14" t="n">
         <v>386.5629597537834</v>
@@ -35661,13 +35661,13 @@
         <v>439.3515785419015</v>
       </c>
       <c r="O14" t="n">
-        <v>369.2231584563178</v>
+        <v>369.2231584563177</v>
       </c>
       <c r="P14" t="n">
         <v>277.0684912329592</v>
       </c>
       <c r="Q14" t="n">
-        <v>130.0651205780293</v>
+        <v>130.0651205780292</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>33.45228430891446</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>238.6780311009466</v>
@@ -35743,10 +35743,10 @@
         <v>416.3693146658877</v>
       </c>
       <c r="P15" t="n">
-        <v>316.9982669508156</v>
+        <v>316.9982669508155</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>33.45228430891411</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,10 +35807,10 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>45.32117857691793</v>
+        <v>45.32117857691792</v>
       </c>
       <c r="L16" t="n">
-        <v>114.0828127225544</v>
+        <v>114.0828127225543</v>
       </c>
       <c r="M16" t="n">
         <v>130.7783941571062</v>
@@ -35822,7 +35822,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P16" t="n">
-        <v>67.64055292990612</v>
+        <v>67.64055292990611</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>33.45228430891446</v>
+        <v>64.81443304846583</v>
       </c>
       <c r="K18" t="n">
         <v>238.6780311009466</v>
@@ -35980,10 +35980,10 @@
         <v>416.3693146658877</v>
       </c>
       <c r="P18" t="n">
-        <v>316.9982669508156</v>
+        <v>126.9612417926712</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>158.6748764185922</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36202,7 +36202,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>113.4554389912682</v>
+        <v>238.6780311009466</v>
       </c>
       <c r="L21" t="n">
         <v>382.95671022767</v>
@@ -36220,7 +36220,7 @@
         <v>316.9982669508156</v>
       </c>
       <c r="Q21" t="n">
-        <v>158.6748764185922</v>
+        <v>33.45228430891457</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>64.81443304846583</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>238.6780311009466</v>
@@ -36448,7 +36448,7 @@
         <v>499.39668221774</v>
       </c>
       <c r="N24" t="n">
-        <v>338.4428713250343</v>
+        <v>528.4798964831782</v>
       </c>
       <c r="O24" t="n">
         <v>416.3693146658877</v>
@@ -36457,7 +36457,7 @@
         <v>316.9982669508156</v>
       </c>
       <c r="Q24" t="n">
-        <v>158.6748764185922</v>
+        <v>33.45228430891457</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>64.81443304846583</v>
       </c>
       <c r="K27" t="n">
         <v>238.6780311009466</v>
@@ -36691,10 +36691,10 @@
         <v>416.3693146658877</v>
       </c>
       <c r="P27" t="n">
-        <v>316.9982669508156</v>
+        <v>285.6361182112636</v>
       </c>
       <c r="Q27" t="n">
-        <v>33.45228430891411</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36910,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>64.81443304846583</v>
       </c>
       <c r="K30" t="n">
-        <v>113.4554389912682</v>
+        <v>207.3158823613952</v>
       </c>
       <c r="L30" t="n">
         <v>382.95671022767</v>
@@ -36931,7 +36931,7 @@
         <v>316.9982669508156</v>
       </c>
       <c r="Q30" t="n">
-        <v>158.6748764185922</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>64.81443304846583</v>
       </c>
       <c r="K33" t="n">
-        <v>113.4554389912682</v>
+        <v>207.3158823613952</v>
       </c>
       <c r="L33" t="n">
         <v>382.95671022767</v>
@@ -37168,7 +37168,7 @@
         <v>316.9982669508156</v>
       </c>
       <c r="Q33" t="n">
-        <v>158.6748764185922</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>64.81443304846583</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>238.6780311009466</v>
@@ -37396,7 +37396,7 @@
         <v>499.39668221774</v>
       </c>
       <c r="N36" t="n">
-        <v>338.4428713250343</v>
+        <v>528.4798964831782</v>
       </c>
       <c r="O36" t="n">
         <v>416.3693146658877</v>
@@ -37405,7 +37405,7 @@
         <v>316.9982669508156</v>
       </c>
       <c r="Q36" t="n">
-        <v>158.6748764185922</v>
+        <v>33.45228430891457</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37633,16 +37633,16 @@
         <v>499.39668221774</v>
       </c>
       <c r="N39" t="n">
-        <v>528.4798964831782</v>
+        <v>338.4428713250343</v>
       </c>
       <c r="O39" t="n">
         <v>416.3693146658877</v>
       </c>
       <c r="P39" t="n">
-        <v>285.636118211264</v>
+        <v>316.9982669508156</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>158.6748764185922</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -38028,7 +38028,7 @@
         <v>446.9000637909531</v>
       </c>
       <c r="N44" t="n">
-        <v>439.3515785419016</v>
+        <v>439.3515785419012</v>
       </c>
       <c r="O44" t="n">
         <v>369.2231584563178</v>
@@ -38037,7 +38037,7 @@
         <v>277.0684912329592</v>
       </c>
       <c r="Q44" t="n">
-        <v>130.0651205780289</v>
+        <v>130.0651205780293</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
